--- a/11thang6/TEMP_Test Plan_v1.0.xlsx
+++ b/11thang6/TEMP_Test Plan_v1.0.xlsx
@@ -58,7 +58,19 @@
     <definedName name="R_83">#REF!</definedName>
     <definedName name="R_84">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1801,6 +1813,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -1841,19 +1866,6 @@
         <color auto="1"/>
       </top>
       <bottom style="dotted">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color auto="1"/>
-      </left>
-      <right style="dotted">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -2313,556 +2325,556 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="25" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="22" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="29" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="29" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="29" xfId="8" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="29" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="29" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="29" xfId="8" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="23" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="25" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="26" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="28" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="33" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="36" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="34" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="35" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="22" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="29" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="23" xfId="8" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="24" xfId="8" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="25" xfId="8" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="33" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="23" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="35" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="24" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="25" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="23" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="24" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="25" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" xfId="8" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="24" xfId="8" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="25" xfId="8" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="25" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="29" xfId="9" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="29" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="25" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="22" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="29" xfId="9" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="29" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="23" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="24" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="27" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="25" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="29" fillId="3" borderId="24" xfId="8" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="25" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="22" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="29" xfId="8" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="22" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="24" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="22" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="30" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="31" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="32" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="23" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="26" fillId="3" borderId="24" xfId="8" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="25" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="24" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="30" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="31" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="32" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="33" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="23" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="24" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="23" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="24" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="25" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="22" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="22" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="22" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="26" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="28" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="24" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="22" xfId="8" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="24" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="24" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="25" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="22" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="22" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="23" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="24" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="22" xfId="8" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="26" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="28" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="23" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="24" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="25" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="23" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="29" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="22" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="29" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="29" xfId="8" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="23" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="24" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="25" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="22" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="30" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="31" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="32" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="24" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="25" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="33" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="23" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="26" fillId="3" borderId="24" xfId="8" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="33" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="29" xfId="8" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="22" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="24" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="25" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="22" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="22" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="30" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="31" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="32" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="23" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="24" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="27" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="25" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="25" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="22" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="29" xfId="9" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="29" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="29" xfId="9" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="29" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="29" fillId="3" borderId="24" xfId="8" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="29" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="35" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="24" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="25" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="23" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="24" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="25" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" xfId="8" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="24" xfId="8" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="25" xfId="8" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="25" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="26" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="28" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="33" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="36" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="29" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="29" xfId="8" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="34" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="35" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="22" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="29" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="23" xfId="8" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="24" xfId="8" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="25" xfId="8" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="52" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="53" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="25" fillId="5" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3922,110 +3934,110 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="265"/>
-      <c r="B1" s="265"/>
-      <c r="C1" s="266" t="s">
+      <c r="A1" s="116"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="267"/>
-      <c r="E1" s="267"/>
-      <c r="F1" s="267"/>
-      <c r="G1" s="267"/>
-      <c r="H1" s="267"/>
-      <c r="I1" s="267"/>
-      <c r="J1" s="268"/>
-      <c r="K1" s="268"/>
-      <c r="L1" s="265"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="116"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="265"/>
-      <c r="B2" s="265"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117"/>
-      <c r="J2" s="118"/>
-      <c r="K2" s="118"/>
-      <c r="L2" s="265"/>
+      <c r="A2" s="116"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="130"/>
+      <c r="K2" s="130"/>
+      <c r="L2" s="116"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="265"/>
-      <c r="B3" s="265"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="117"/>
-      <c r="H3" s="117"/>
-      <c r="I3" s="117"/>
-      <c r="J3" s="118"/>
-      <c r="K3" s="118"/>
-      <c r="L3" s="265"/>
+      <c r="A3" s="116"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="130"/>
+      <c r="K3" s="130"/>
+      <c r="L3" s="116"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="269"/>
-      <c r="B4" s="269"/>
-      <c r="C4" s="270"/>
-      <c r="D4" s="271"/>
-      <c r="E4" s="271"/>
-      <c r="F4" s="271"/>
-      <c r="G4" s="271"/>
-      <c r="H4" s="271"/>
-      <c r="I4" s="271"/>
-      <c r="J4" s="272"/>
-      <c r="K4" s="272"/>
-      <c r="L4" s="265"/>
+      <c r="A4" s="117"/>
+      <c r="B4" s="117"/>
+      <c r="C4" s="131"/>
+      <c r="D4" s="132"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="132"/>
+      <c r="G4" s="132"/>
+      <c r="H4" s="132"/>
+      <c r="I4" s="132"/>
+      <c r="J4" s="133"/>
+      <c r="K4" s="133"/>
+      <c r="L4" s="116"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="265"/>
-      <c r="B5" s="265"/>
-      <c r="C5" s="273"/>
-      <c r="D5" s="273"/>
-      <c r="E5" s="273"/>
-      <c r="F5" s="273"/>
-      <c r="G5" s="273"/>
-      <c r="H5" s="273"/>
-      <c r="I5" s="273"/>
-      <c r="J5" s="273"/>
-      <c r="K5" s="273"/>
-      <c r="L5" s="265"/>
+      <c r="A5" s="116"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="118"/>
+      <c r="F5" s="118"/>
+      <c r="G5" s="118"/>
+      <c r="H5" s="118"/>
+      <c r="I5" s="118"/>
+      <c r="J5" s="118"/>
+      <c r="K5" s="118"/>
+      <c r="L5" s="116"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="265"/>
-      <c r="B6" s="265"/>
-      <c r="C6" s="273"/>
-      <c r="D6" s="273"/>
-      <c r="E6" s="273"/>
-      <c r="F6" s="273"/>
-      <c r="G6" s="273"/>
-      <c r="H6" s="273"/>
-      <c r="I6" s="273"/>
-      <c r="J6" s="273"/>
-      <c r="K6" s="273"/>
-      <c r="L6" s="265"/>
+      <c r="A6" s="116"/>
+      <c r="B6" s="116"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="118"/>
+      <c r="E6" s="118"/>
+      <c r="F6" s="118"/>
+      <c r="G6" s="118"/>
+      <c r="H6" s="118"/>
+      <c r="I6" s="118"/>
+      <c r="J6" s="118"/>
+      <c r="K6" s="118"/>
+      <c r="L6" s="116"/>
     </row>
     <row r="7" spans="1:12" ht="30">
-      <c r="A7" s="274" t="s">
+      <c r="A7" s="134" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="275"/>
-      <c r="C7" s="275"/>
-      <c r="D7" s="275"/>
-      <c r="E7" s="275"/>
-      <c r="F7" s="275"/>
-      <c r="G7" s="275"/>
-      <c r="H7" s="275"/>
-      <c r="I7" s="275"/>
-      <c r="J7" s="275"/>
-      <c r="K7" s="275"/>
-      <c r="L7" s="265"/>
+      <c r="B7" s="135"/>
+      <c r="C7" s="135"/>
+      <c r="D7" s="135"/>
+      <c r="E7" s="135"/>
+      <c r="F7" s="135"/>
+      <c r="G7" s="135"/>
+      <c r="H7" s="135"/>
+      <c r="I7" s="135"/>
+      <c r="J7" s="135"/>
+      <c r="K7" s="135"/>
+      <c r="L7" s="116"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="276"/>
-      <c r="B8" s="276"/>
+      <c r="A8" s="119"/>
+      <c r="B8" s="119"/>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
@@ -4035,7 +4047,7 @@
       <c r="I8" s="13"/>
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
-      <c r="L8" s="265"/>
+      <c r="L8" s="116"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="13"/>
@@ -4049,7 +4061,7 @@
       <c r="I9" s="13"/>
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
-      <c r="L9" s="265"/>
+      <c r="L9" s="116"/>
     </row>
     <row r="10" spans="1:12" ht="14.45" thickBot="1">
       <c r="A10" s="13"/>
@@ -4063,79 +4075,79 @@
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
-      <c r="L10" s="265"/>
+      <c r="L10" s="116"/>
     </row>
     <row r="11" spans="1:12" ht="108.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A11" s="119" t="s">
+      <c r="A11" s="136" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="277"/>
-      <c r="C11" s="277"/>
-      <c r="D11" s="277"/>
-      <c r="E11" s="277"/>
-      <c r="F11" s="277"/>
-      <c r="G11" s="277"/>
-      <c r="H11" s="277"/>
-      <c r="I11" s="277"/>
-      <c r="J11" s="277"/>
-      <c r="K11" s="277"/>
-      <c r="L11" s="278"/>
+      <c r="B11" s="284"/>
+      <c r="C11" s="284"/>
+      <c r="D11" s="284"/>
+      <c r="E11" s="284"/>
+      <c r="F11" s="284"/>
+      <c r="G11" s="284"/>
+      <c r="H11" s="284"/>
+      <c r="I11" s="284"/>
+      <c r="J11" s="284"/>
+      <c r="K11" s="284"/>
+      <c r="L11" s="120"/>
     </row>
     <row r="12" spans="1:12" ht="14.45" thickTop="1">
-      <c r="A12" s="273"/>
-      <c r="B12" s="273"/>
-      <c r="C12" s="273"/>
-      <c r="D12" s="273"/>
-      <c r="E12" s="273"/>
-      <c r="F12" s="273"/>
-      <c r="G12" s="273"/>
-      <c r="H12" s="273"/>
-      <c r="I12" s="273"/>
-      <c r="J12" s="273"/>
-      <c r="K12" s="273"/>
-      <c r="L12" s="265"/>
+      <c r="A12" s="118"/>
+      <c r="B12" s="118"/>
+      <c r="C12" s="118"/>
+      <c r="D12" s="118"/>
+      <c r="E12" s="118"/>
+      <c r="F12" s="118"/>
+      <c r="G12" s="118"/>
+      <c r="H12" s="118"/>
+      <c r="I12" s="118"/>
+      <c r="J12" s="118"/>
+      <c r="K12" s="118"/>
+      <c r="L12" s="116"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="273"/>
-      <c r="B13" s="265"/>
-      <c r="C13" s="279"/>
-      <c r="D13" s="280"/>
-      <c r="E13" s="281"/>
-      <c r="F13" s="279"/>
-      <c r="G13" s="280"/>
-      <c r="H13" s="281"/>
-      <c r="I13" s="279"/>
-      <c r="J13" s="282"/>
-      <c r="K13" s="281"/>
-      <c r="L13" s="265"/>
+      <c r="A13" s="118"/>
+      <c r="B13" s="116"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="122"/>
+      <c r="E13" s="123"/>
+      <c r="F13" s="121"/>
+      <c r="G13" s="122"/>
+      <c r="H13" s="123"/>
+      <c r="I13" s="121"/>
+      <c r="J13" s="124"/>
+      <c r="K13" s="123"/>
+      <c r="L13" s="116"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="14"/>
       <c r="B14" s="14"/>
-      <c r="C14" s="279"/>
-      <c r="D14" s="280"/>
-      <c r="E14" s="281"/>
-      <c r="F14" s="279"/>
-      <c r="G14" s="280"/>
-      <c r="H14" s="281"/>
-      <c r="I14" s="279"/>
-      <c r="J14" s="280"/>
-      <c r="K14" s="281"/>
-      <c r="L14" s="265"/>
+      <c r="C14" s="121"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="123"/>
+      <c r="F14" s="121"/>
+      <c r="G14" s="122"/>
+      <c r="H14" s="123"/>
+      <c r="I14" s="121"/>
+      <c r="J14" s="122"/>
+      <c r="K14" s="123"/>
+      <c r="L14" s="116"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="265"/>
-      <c r="B16" s="265"/>
-      <c r="C16" s="265"/>
-      <c r="D16" s="265"/>
-      <c r="E16" s="265"/>
-      <c r="F16" s="265"/>
-      <c r="G16" s="265"/>
-      <c r="H16" s="265"/>
-      <c r="I16" s="265"/>
-      <c r="J16" s="273"/>
-      <c r="K16" s="265"/>
-      <c r="L16" s="265"/>
+      <c r="A16" s="116"/>
+      <c r="B16" s="116"/>
+      <c r="C16" s="116"/>
+      <c r="D16" s="116"/>
+      <c r="E16" s="116"/>
+      <c r="F16" s="116"/>
+      <c r="G16" s="116"/>
+      <c r="H16" s="116"/>
+      <c r="I16" s="116"/>
+      <c r="J16" s="118"/>
+      <c r="K16" s="116"/>
+      <c r="L16" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4176,30 +4188,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="15" customHeight="1">
-      <c r="A2" s="142" t="s">
+      <c r="A2" s="148" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="142"/>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="142"/>
-      <c r="I2" s="142"/>
-      <c r="J2" s="142"/>
+      <c r="B2" s="148"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1">
-      <c r="A3" s="142"/>
-      <c r="B3" s="142"/>
-      <c r="C3" s="142"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="142"/>
-      <c r="F3" s="142"/>
-      <c r="G3" s="142"/>
-      <c r="H3" s="142"/>
-      <c r="I3" s="142"/>
-      <c r="J3" s="142"/>
+      <c r="A3" s="148"/>
+      <c r="B3" s="148"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="148"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="2" t="s">
@@ -4211,80 +4223,80 @@
       <c r="B5" s="9"/>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1">
-      <c r="A6" s="283" t="s">
+      <c r="A6" s="285" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="284" t="s">
+      <c r="B6" s="286" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="284"/>
-      <c r="D6" s="285" t="s">
+      <c r="C6" s="286"/>
+      <c r="D6" s="287" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="286" t="s">
+      <c r="E6" s="288" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="286" t="s">
+      <c r="F6" s="288" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="286" t="s">
+      <c r="G6" s="288" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="286" t="s">
+      <c r="H6" s="288" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="284" t="s">
+      <c r="I6" s="286" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="287"/>
+      <c r="J6" s="289"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1">
-      <c r="A7" s="153" t="s">
+      <c r="A7" s="140" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="143" t="s">
+      <c r="B7" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="143"/>
-      <c r="D7" s="151" t="s">
+      <c r="C7" s="149"/>
+      <c r="D7" s="139" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="148" t="s">
+      <c r="E7" s="152" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="151" t="s">
+      <c r="F7" s="139" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="147" t="s">
+      <c r="G7" s="146" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="147" t="s">
+      <c r="H7" s="146" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="140" t="s">
+      <c r="I7" s="144" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="141"/>
+      <c r="J7" s="145"/>
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1">
-      <c r="A8" s="153"/>
-      <c r="B8" s="143"/>
-      <c r="C8" s="143"/>
-      <c r="D8" s="151"/>
-      <c r="E8" s="148"/>
-      <c r="F8" s="151"/>
-      <c r="G8" s="147"/>
-      <c r="H8" s="147"/>
-      <c r="I8" s="140" t="s">
+      <c r="A8" s="140"/>
+      <c r="B8" s="149"/>
+      <c r="C8" s="149"/>
+      <c r="D8" s="139"/>
+      <c r="E8" s="152"/>
+      <c r="F8" s="139"/>
+      <c r="G8" s="146"/>
+      <c r="H8" s="146"/>
+      <c r="I8" s="144" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="141"/>
+      <c r="J8" s="145"/>
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1">
-      <c r="A9" s="153"/>
-      <c r="B9" s="143"/>
-      <c r="C9" s="143"/>
-      <c r="D9" s="151"/>
+      <c r="A9" s="140"/>
+      <c r="B9" s="149"/>
+      <c r="C9" s="149"/>
+      <c r="D9" s="139"/>
       <c r="E9" s="20" t="s">
         <v>21</v>
       </c>
@@ -4297,16 +4309,16 @@
       <c r="H9" s="22">
         <v>0.5</v>
       </c>
-      <c r="I9" s="140" t="s">
+      <c r="I9" s="144" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="141"/>
+      <c r="J9" s="145"/>
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1">
-      <c r="A10" s="153"/>
-      <c r="B10" s="143"/>
-      <c r="C10" s="143"/>
-      <c r="D10" s="151"/>
+      <c r="A10" s="140"/>
+      <c r="B10" s="149"/>
+      <c r="C10" s="149"/>
+      <c r="D10" s="139"/>
       <c r="E10" s="20" t="s">
         <v>23</v>
       </c>
@@ -4317,16 +4329,16 @@
         <v>44687</v>
       </c>
       <c r="H10" s="23"/>
-      <c r="I10" s="140" t="s">
+      <c r="I10" s="144" t="s">
         <v>24</v>
       </c>
-      <c r="J10" s="141"/>
+      <c r="J10" s="145"/>
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1">
-      <c r="A11" s="153"/>
-      <c r="B11" s="143"/>
-      <c r="C11" s="143"/>
-      <c r="D11" s="151"/>
+      <c r="A11" s="140"/>
+      <c r="B11" s="149"/>
+      <c r="C11" s="149"/>
+      <c r="D11" s="139"/>
       <c r="E11" s="20" t="s">
         <v>25</v>
       </c>
@@ -4337,34 +4349,34 @@
         <v>44718</v>
       </c>
       <c r="H11" s="23"/>
-      <c r="I11" s="140" t="s">
+      <c r="I11" s="144" t="s">
         <v>26</v>
       </c>
-      <c r="J11" s="141"/>
+      <c r="J11" s="145"/>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1">
-      <c r="A12" s="153"/>
-      <c r="B12" s="143"/>
-      <c r="C12" s="143"/>
-      <c r="D12" s="151"/>
+      <c r="A12" s="140"/>
+      <c r="B12" s="149"/>
+      <c r="C12" s="149"/>
+      <c r="D12" s="139"/>
       <c r="E12" s="20" t="s">
         <v>27</v>
       </c>
       <c r="F12" s="20"/>
       <c r="G12" s="20"/>
       <c r="H12" s="23"/>
-      <c r="I12" s="149"/>
-      <c r="J12" s="150"/>
+      <c r="I12" s="153"/>
+      <c r="J12" s="154"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
-      <c r="A13" s="153" t="s">
+      <c r="A13" s="140" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="143" t="s">
+      <c r="B13" s="149" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="143"/>
-      <c r="D13" s="151" t="s">
+      <c r="C13" s="149"/>
+      <c r="D13" s="139" t="s">
         <v>14</v>
       </c>
       <c r="E13" s="20" t="s">
@@ -4373,136 +4385,136 @@
       <c r="F13" s="20"/>
       <c r="G13" s="20"/>
       <c r="H13" s="23"/>
-      <c r="I13" s="138" t="s">
+      <c r="I13" s="158" t="s">
         <v>30</v>
       </c>
-      <c r="J13" s="139"/>
+      <c r="J13" s="159"/>
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1">
-      <c r="A14" s="153"/>
-      <c r="B14" s="143"/>
-      <c r="C14" s="143"/>
-      <c r="D14" s="151"/>
+      <c r="A14" s="140"/>
+      <c r="B14" s="149"/>
+      <c r="C14" s="149"/>
+      <c r="D14" s="139"/>
       <c r="E14" s="20" t="s">
         <v>23</v>
       </c>
       <c r="F14" s="20"/>
       <c r="G14" s="20"/>
       <c r="H14" s="23"/>
-      <c r="I14" s="138" t="s">
+      <c r="I14" s="158" t="s">
         <v>31</v>
       </c>
-      <c r="J14" s="139"/>
+      <c r="J14" s="159"/>
     </row>
     <row r="15" spans="1:10" ht="15" customHeight="1">
-      <c r="A15" s="153"/>
-      <c r="B15" s="143"/>
-      <c r="C15" s="143"/>
-      <c r="D15" s="151"/>
+      <c r="A15" s="140"/>
+      <c r="B15" s="149"/>
+      <c r="C15" s="149"/>
+      <c r="D15" s="139"/>
       <c r="E15" s="20" t="s">
         <v>21</v>
       </c>
       <c r="F15" s="20"/>
       <c r="G15" s="20"/>
       <c r="H15" s="39"/>
-      <c r="I15" s="140" t="s">
+      <c r="I15" s="144" t="s">
         <v>32</v>
       </c>
-      <c r="J15" s="141"/>
+      <c r="J15" s="145"/>
     </row>
     <row r="16" spans="1:10" ht="15" customHeight="1">
-      <c r="A16" s="153"/>
-      <c r="B16" s="143"/>
-      <c r="C16" s="143"/>
-      <c r="D16" s="151"/>
+      <c r="A16" s="140"/>
+      <c r="B16" s="149"/>
+      <c r="C16" s="149"/>
+      <c r="D16" s="139"/>
       <c r="E16" s="20" t="s">
         <v>33</v>
       </c>
       <c r="F16" s="20"/>
       <c r="G16" s="20"/>
       <c r="H16" s="23"/>
-      <c r="I16" s="140" t="s">
+      <c r="I16" s="144" t="s">
         <v>34</v>
       </c>
-      <c r="J16" s="141"/>
+      <c r="J16" s="145"/>
     </row>
     <row r="17" spans="1:10" ht="15" customHeight="1">
-      <c r="A17" s="153"/>
-      <c r="B17" s="143"/>
-      <c r="C17" s="143"/>
-      <c r="D17" s="151"/>
+      <c r="A17" s="140"/>
+      <c r="B17" s="149"/>
+      <c r="C17" s="149"/>
+      <c r="D17" s="139"/>
       <c r="E17" s="20" t="s">
         <v>25</v>
       </c>
       <c r="F17" s="20"/>
       <c r="G17" s="20"/>
       <c r="H17" s="23"/>
-      <c r="I17" s="140" t="s">
+      <c r="I17" s="144" t="s">
         <v>35</v>
       </c>
-      <c r="J17" s="141"/>
+      <c r="J17" s="145"/>
     </row>
     <row r="18" spans="1:10" ht="15" customHeight="1">
-      <c r="A18" s="153"/>
-      <c r="B18" s="143"/>
-      <c r="C18" s="143"/>
-      <c r="D18" s="151"/>
+      <c r="A18" s="140"/>
+      <c r="B18" s="149"/>
+      <c r="C18" s="149"/>
+      <c r="D18" s="139"/>
       <c r="E18" s="20" t="s">
         <v>21</v>
       </c>
       <c r="F18" s="20"/>
       <c r="G18" s="20"/>
       <c r="H18" s="23"/>
-      <c r="I18" s="140" t="s">
+      <c r="I18" s="144" t="s">
         <v>36</v>
       </c>
-      <c r="J18" s="141"/>
+      <c r="J18" s="145"/>
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1">
-      <c r="A19" s="153"/>
-      <c r="B19" s="143"/>
-      <c r="C19" s="143"/>
-      <c r="D19" s="151"/>
+      <c r="A19" s="140"/>
+      <c r="B19" s="149"/>
+      <c r="C19" s="149"/>
+      <c r="D19" s="139"/>
       <c r="E19" s="20" t="s">
         <v>23</v>
       </c>
       <c r="F19" s="20"/>
       <c r="G19" s="20"/>
       <c r="H19" s="23"/>
-      <c r="I19" s="140" t="s">
+      <c r="I19" s="144" t="s">
         <v>37</v>
       </c>
-      <c r="J19" s="141"/>
+      <c r="J19" s="145"/>
     </row>
     <row r="20" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A20" s="153"/>
-      <c r="B20" s="143"/>
-      <c r="C20" s="143"/>
-      <c r="D20" s="151"/>
+      <c r="A20" s="140"/>
+      <c r="B20" s="149"/>
+      <c r="C20" s="149"/>
+      <c r="D20" s="139"/>
       <c r="E20" s="20" t="s">
         <v>25</v>
       </c>
       <c r="F20" s="20"/>
       <c r="G20" s="20"/>
       <c r="H20" s="23"/>
-      <c r="I20" s="140" t="s">
+      <c r="I20" s="144" t="s">
         <v>38</v>
       </c>
-      <c r="J20" s="141"/>
+      <c r="J20" s="145"/>
     </row>
     <row r="21" spans="1:10" ht="15" customHeight="1">
-      <c r="A21" s="154"/>
-      <c r="B21" s="144"/>
-      <c r="C21" s="144"/>
-      <c r="D21" s="155"/>
+      <c r="A21" s="141"/>
+      <c r="B21" s="150"/>
+      <c r="C21" s="150"/>
+      <c r="D21" s="142"/>
       <c r="E21" s="24"/>
       <c r="F21" s="24"/>
       <c r="G21" s="24"/>
       <c r="H21" s="25"/>
-      <c r="I21" s="134" t="s">
+      <c r="I21" s="155" t="s">
         <v>39</v>
       </c>
-      <c r="J21" s="136"/>
+      <c r="J21" s="156"/>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="4"/>
@@ -4524,10 +4536,10 @@
       <c r="A24" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="156" t="s">
+      <c r="B24" s="138" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="156"/>
+      <c r="C24" s="138"/>
       <c r="D24" s="33" t="s">
         <v>43</v>
       </c>
@@ -4544,10 +4556,10 @@
     </row>
     <row r="25" spans="1:10" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A25" s="26"/>
-      <c r="B25" s="137" t="s">
+      <c r="B25" s="157" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="137"/>
+      <c r="C25" s="157"/>
       <c r="D25" s="40" t="s">
         <v>46</v>
       </c>
@@ -4563,13 +4575,13 @@
       <c r="J25" s="51"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="146" t="s">
+      <c r="A26" s="151" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="131" t="s">
+      <c r="B26" s="143" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="131"/>
+      <c r="C26" s="143"/>
       <c r="D26" s="27" t="s">
         <v>21</v>
       </c>
@@ -4581,11 +4593,11 @@
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="146"/>
-      <c r="B27" s="145" t="s">
+      <c r="A27" s="151"/>
+      <c r="B27" s="137" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="145"/>
+      <c r="C27" s="137"/>
       <c r="D27" s="27" t="s">
         <v>25</v>
       </c>
@@ -4601,11 +4613,11 @@
       <c r="J27" s="43"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="146"/>
-      <c r="B28" s="145" t="s">
+      <c r="A28" s="151"/>
+      <c r="B28" s="137" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="145"/>
+      <c r="C28" s="137"/>
       <c r="D28" s="27" t="s">
         <v>27</v>
       </c>
@@ -4621,11 +4633,11 @@
       <c r="J28" s="10"/>
     </row>
     <row r="29" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A29" s="146"/>
-      <c r="B29" s="145" t="s">
+      <c r="A29" s="151"/>
+      <c r="B29" s="137" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="145"/>
+      <c r="C29" s="137"/>
       <c r="D29" s="27" t="s">
         <v>23</v>
       </c>
@@ -4641,11 +4653,11 @@
       <c r="J29" s="18"/>
     </row>
     <row r="30" spans="1:10" ht="18" customHeight="1">
-      <c r="A30" s="146"/>
-      <c r="B30" s="130" t="s">
+      <c r="A30" s="151"/>
+      <c r="B30" s="147" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="130"/>
+      <c r="C30" s="147"/>
       <c r="D30" s="27" t="s">
         <v>25</v>
       </c>
@@ -4661,11 +4673,11 @@
       <c r="J30" s="18"/>
     </row>
     <row r="31" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A31" s="146"/>
-      <c r="B31" s="130" t="s">
+      <c r="A31" s="151"/>
+      <c r="B31" s="147" t="s">
         <v>54</v>
       </c>
-      <c r="C31" s="130" t="s">
+      <c r="C31" s="147" t="s">
         <v>54</v>
       </c>
       <c r="D31" s="27" t="s">
@@ -4683,11 +4695,11 @@
       <c r="J31" s="18"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="146"/>
-      <c r="B32" s="130" t="s">
+      <c r="A32" s="151"/>
+      <c r="B32" s="147" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="130" t="s">
+      <c r="C32" s="147" t="s">
         <v>55</v>
       </c>
       <c r="D32" s="27" t="s">
@@ -4706,10 +4718,10 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="28"/>
-      <c r="B33" s="130" t="s">
+      <c r="B33" s="147" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="130" t="s">
+      <c r="C33" s="147" t="s">
         <v>56</v>
       </c>
       <c r="D33" s="27" t="s">
@@ -4726,10 +4738,10 @@
       <c r="A34" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="B34" s="152" t="s">
+      <c r="B34" s="164" t="s">
         <v>57</v>
       </c>
-      <c r="C34" s="152"/>
+      <c r="C34" s="164"/>
       <c r="D34" s="27" t="s">
         <v>23</v>
       </c>
@@ -4748,10 +4760,10 @@
       <c r="A35" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="B35" s="131" t="s">
+      <c r="B35" s="143" t="s">
         <v>59</v>
       </c>
-      <c r="C35" s="131"/>
+      <c r="C35" s="143"/>
       <c r="D35" s="27" t="s">
         <v>21</v>
       </c>
@@ -4770,10 +4782,10 @@
       <c r="A36" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="B36" s="131" t="s">
+      <c r="B36" s="143" t="s">
         <v>61</v>
       </c>
-      <c r="C36" s="131"/>
+      <c r="C36" s="143"/>
       <c r="D36" s="27" t="s">
         <v>27</v>
       </c>
@@ -4792,10 +4804,10 @@
       <c r="A37" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="B37" s="131" t="s">
+      <c r="B37" s="143" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="131"/>
+      <c r="C37" s="143"/>
       <c r="D37" s="27" t="s">
         <v>25</v>
       </c>
@@ -4814,10 +4826,10 @@
       <c r="A38" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="B38" s="131" t="s">
+      <c r="B38" s="143" t="s">
         <v>65</v>
       </c>
-      <c r="C38" s="131"/>
+      <c r="C38" s="143"/>
       <c r="D38" s="27" t="s">
         <v>25</v>
       </c>
@@ -4836,10 +4848,10 @@
       <c r="A39" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="B39" s="131" t="s">
+      <c r="B39" s="143" t="s">
         <v>67</v>
       </c>
-      <c r="C39" s="131"/>
+      <c r="C39" s="143"/>
       <c r="D39" s="27" t="s">
         <v>21</v>
       </c>
@@ -4858,10 +4870,10 @@
       <c r="A40" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="B40" s="131" t="s">
+      <c r="B40" s="143" t="s">
         <v>69</v>
       </c>
-      <c r="C40" s="131"/>
+      <c r="C40" s="143"/>
       <c r="D40" s="27" t="s">
         <v>23</v>
       </c>
@@ -4880,10 +4892,10 @@
       <c r="A41" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="B41" s="131" t="s">
+      <c r="B41" s="143" t="s">
         <v>71</v>
       </c>
-      <c r="C41" s="131"/>
+      <c r="C41" s="143"/>
       <c r="D41" s="27" t="s">
         <v>27</v>
       </c>
@@ -4896,10 +4908,10 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="30"/>
-      <c r="B42" s="132" t="s">
+      <c r="B42" s="163" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="132"/>
+      <c r="C42" s="163"/>
       <c r="D42" s="31"/>
       <c r="E42" s="31"/>
       <c r="F42" s="31"/>
@@ -4929,12 +4941,12 @@
       <c r="D44" s="51"/>
       <c r="E44" s="51"/>
       <c r="F44" s="51"/>
-      <c r="G44" s="288"/>
-      <c r="H44" s="289" t="s">
+      <c r="G44" s="290"/>
+      <c r="H44" s="291" t="s">
         <v>73</v>
       </c>
-      <c r="I44" s="289"/>
-      <c r="J44" s="290"/>
+      <c r="I44" s="291"/>
+      <c r="J44" s="292"/>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="35" t="s">
@@ -4948,11 +4960,11 @@
       <c r="E45" s="47"/>
       <c r="F45" s="47"/>
       <c r="G45" s="52"/>
-      <c r="H45" s="125" t="s">
+      <c r="H45" s="172" t="s">
         <v>75</v>
       </c>
-      <c r="I45" s="125"/>
-      <c r="J45" s="126"/>
+      <c r="I45" s="172"/>
+      <c r="J45" s="173"/>
     </row>
     <row r="46" spans="1:10" ht="32.1" customHeight="1">
       <c r="A46" s="28"/>
@@ -4964,11 +4976,11 @@
       <c r="E46" s="44"/>
       <c r="F46" s="44"/>
       <c r="G46" s="49"/>
-      <c r="H46" s="127" t="s">
+      <c r="H46" s="174" t="s">
         <v>77</v>
       </c>
-      <c r="I46" s="127"/>
-      <c r="J46" s="128"/>
+      <c r="I46" s="174"/>
+      <c r="J46" s="175"/>
     </row>
     <row r="47" spans="1:10" ht="32.450000000000003" customHeight="1">
       <c r="A47" s="34" t="s">
@@ -4982,9 +4994,9 @@
       <c r="E47" s="48"/>
       <c r="F47" s="48"/>
       <c r="G47" s="49"/>
-      <c r="H47" s="127"/>
-      <c r="I47" s="127"/>
-      <c r="J47" s="128"/>
+      <c r="H47" s="174"/>
+      <c r="I47" s="174"/>
+      <c r="J47" s="175"/>
     </row>
     <row r="48" spans="1:10" ht="62.1" customHeight="1">
       <c r="A48" s="34" t="s">
@@ -4998,9 +5010,9 @@
       <c r="E48" s="48"/>
       <c r="F48" s="48"/>
       <c r="G48" s="49"/>
-      <c r="H48" s="127"/>
-      <c r="I48" s="127"/>
-      <c r="J48" s="128"/>
+      <c r="H48" s="174"/>
+      <c r="I48" s="174"/>
+      <c r="J48" s="175"/>
     </row>
     <row r="49" spans="1:10" ht="45.6" customHeight="1">
       <c r="A49" s="34" t="s">
@@ -5111,117 +5123,137 @@
       <c r="C58" s="2"/>
     </row>
     <row r="59" spans="1:10">
-      <c r="A59" s="291" t="s">
+      <c r="A59" s="293" t="s">
         <v>41</v>
       </c>
-      <c r="B59" s="292" t="s">
+      <c r="B59" s="294" t="s">
         <v>89</v>
       </c>
-      <c r="C59" s="292"/>
-      <c r="D59" s="293" t="s">
+      <c r="C59" s="294"/>
+      <c r="D59" s="295" t="s">
         <v>43</v>
       </c>
-      <c r="E59" s="293" t="s">
+      <c r="E59" s="295" t="s">
         <v>73</v>
       </c>
-      <c r="F59" s="293"/>
+      <c r="F59" s="295"/>
     </row>
     <row r="60" spans="1:10" ht="15" customHeight="1">
-      <c r="A60" s="135" t="s">
+      <c r="A60" s="161" t="s">
         <v>12</v>
       </c>
-      <c r="B60" s="129" t="s">
+      <c r="B60" s="162" t="s">
         <v>90</v>
       </c>
-      <c r="C60" s="129"/>
-      <c r="D60" s="129" t="s">
+      <c r="C60" s="162"/>
+      <c r="D60" s="162" t="s">
         <v>91</v>
       </c>
-      <c r="E60" s="120" t="s">
+      <c r="E60" s="165" t="s">
         <v>92</v>
       </c>
       <c r="F60" s="45"/>
     </row>
     <row r="61" spans="1:10">
-      <c r="A61" s="135"/>
-      <c r="B61" s="129"/>
-      <c r="C61" s="129"/>
-      <c r="D61" s="129"/>
-      <c r="E61" s="121"/>
+      <c r="A61" s="161"/>
+      <c r="B61" s="162"/>
+      <c r="C61" s="162"/>
+      <c r="D61" s="162"/>
+      <c r="E61" s="166"/>
       <c r="F61" s="45"/>
     </row>
     <row r="62" spans="1:10">
-      <c r="A62" s="135"/>
-      <c r="B62" s="129"/>
-      <c r="C62" s="129"/>
-      <c r="D62" s="129"/>
-      <c r="E62" s="121"/>
+      <c r="A62" s="161"/>
+      <c r="B62" s="162"/>
+      <c r="C62" s="162"/>
+      <c r="D62" s="162"/>
+      <c r="E62" s="166"/>
       <c r="F62" s="45"/>
     </row>
     <row r="63" spans="1:10" ht="38.450000000000003" customHeight="1">
-      <c r="A63" s="135"/>
-      <c r="B63" s="129"/>
-      <c r="C63" s="129"/>
-      <c r="D63" s="129"/>
-      <c r="E63" s="122"/>
+      <c r="A63" s="161"/>
+      <c r="B63" s="162"/>
+      <c r="C63" s="162"/>
+      <c r="D63" s="162"/>
+      <c r="E63" s="167"/>
       <c r="F63" s="45"/>
     </row>
     <row r="64" spans="1:10" ht="15" customHeight="1">
-      <c r="A64" s="135" t="s">
+      <c r="A64" s="161" t="s">
         <v>28</v>
       </c>
-      <c r="B64" s="129" t="s">
+      <c r="B64" s="162" t="s">
         <v>93</v>
       </c>
-      <c r="C64" s="129"/>
-      <c r="D64" s="123" t="s">
+      <c r="C64" s="162"/>
+      <c r="D64" s="169" t="s">
         <v>91</v>
       </c>
-      <c r="E64" s="120" t="s">
+      <c r="E64" s="165" t="s">
         <v>94</v>
       </c>
       <c r="F64" s="46"/>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="135"/>
-      <c r="B65" s="129"/>
-      <c r="C65" s="129"/>
-      <c r="D65" s="124"/>
-      <c r="E65" s="121"/>
+      <c r="A65" s="161"/>
+      <c r="B65" s="162"/>
+      <c r="C65" s="162"/>
+      <c r="D65" s="170"/>
+      <c r="E65" s="166"/>
       <c r="F65" s="46"/>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="36"/>
-      <c r="B66" s="133"/>
-      <c r="C66" s="133"/>
-      <c r="D66" s="124"/>
-      <c r="E66" s="121"/>
+      <c r="B66" s="160"/>
+      <c r="C66" s="160"/>
+      <c r="D66" s="170"/>
+      <c r="E66" s="166"/>
       <c r="F66" s="23"/>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="37"/>
-      <c r="B67" s="134"/>
-      <c r="C67" s="134"/>
-      <c r="D67" s="294"/>
-      <c r="E67" s="295"/>
+      <c r="B67" s="155"/>
+      <c r="C67" s="155"/>
+      <c r="D67" s="171"/>
+      <c r="E67" s="168"/>
       <c r="F67" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D7:D12"/>
-    <mergeCell ref="A7:A12"/>
-    <mergeCell ref="A13:A21"/>
-    <mergeCell ref="D13:D21"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E60:E63"/>
+    <mergeCell ref="E64:E67"/>
+    <mergeCell ref="D64:D67"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="D60:D63"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B64:C65"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="B60:C63"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="A2:J3"/>
@@ -5238,40 +5270,20 @@
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="A60:A63"/>
-    <mergeCell ref="B60:C63"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B64:C65"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="E60:E63"/>
-    <mergeCell ref="E64:E67"/>
-    <mergeCell ref="D64:D67"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="D60:D63"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D7:D12"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="A13:A21"/>
+    <mergeCell ref="D13:D21"/>
+    <mergeCell ref="B26:C26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="45" orientation="portrait" r:id="rId1"/>
@@ -5394,7 +5406,7 @@
       <c r="H4" s="301"/>
       <c r="I4" s="301"/>
       <c r="J4" s="302" t="e">
-        <f>B2/(B2+D2+E3b+F2+G2+H2)</f>
+        <f ca="1">B2/(B2+D2+E3b+F2+G2+H2)</f>
         <v>#NAME?</v>
       </c>
       <c r="K4" s="59"/>
@@ -5853,37 +5865,37 @@
       <c r="AO11" s="303"/>
     </row>
     <row r="12" spans="1:41" s="62" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A12" s="239" t="s">
+      <c r="A12" s="176" t="s">
         <v>117</v>
       </c>
-      <c r="B12" s="239"/>
-      <c r="C12" s="157" t="s">
+      <c r="B12" s="176"/>
+      <c r="C12" s="177" t="s">
         <v>118</v>
       </c>
-      <c r="D12" s="264"/>
-      <c r="E12" s="158"/>
-      <c r="F12" s="239"/>
-      <c r="G12" s="239"/>
-      <c r="H12" s="239"/>
-      <c r="I12" s="246" t="s">
+      <c r="D12" s="178"/>
+      <c r="E12" s="179"/>
+      <c r="F12" s="176"/>
+      <c r="G12" s="176"/>
+      <c r="H12" s="176"/>
+      <c r="I12" s="180" t="s">
         <v>119</v>
       </c>
-      <c r="J12" s="246"/>
-      <c r="K12" s="246"/>
-      <c r="L12" s="246"/>
-      <c r="M12" s="246"/>
-      <c r="N12" s="247"/>
-      <c r="O12" s="247"/>
-      <c r="P12" s="247"/>
+      <c r="J12" s="180"/>
+      <c r="K12" s="180"/>
+      <c r="L12" s="180"/>
+      <c r="M12" s="180"/>
+      <c r="N12" s="181"/>
+      <c r="O12" s="181"/>
+      <c r="P12" s="181"/>
       <c r="Q12" s="67"/>
       <c r="R12" s="67"/>
-      <c r="S12" s="248" t="s">
+      <c r="S12" s="182" t="s">
         <v>120</v>
       </c>
-      <c r="T12" s="248"/>
-      <c r="U12" s="248"/>
-      <c r="V12" s="248"/>
-      <c r="W12" s="248"/>
+      <c r="T12" s="182"/>
+      <c r="U12" s="182"/>
+      <c r="V12" s="182"/>
+      <c r="W12" s="182"/>
       <c r="X12" s="68" t="s">
         <v>109</v>
       </c>
@@ -5901,87 +5913,87 @@
       <c r="AJ12" s="71"/>
       <c r="AK12" s="69"/>
       <c r="AL12" s="70"/>
-      <c r="AM12" s="239"/>
-      <c r="AN12" s="239"/>
+      <c r="AM12" s="176"/>
+      <c r="AN12" s="176"/>
       <c r="AO12" s="66"/>
     </row>
     <row r="13" spans="1:41" s="62" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A13" s="240" t="s">
+      <c r="A13" s="183" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="241"/>
-      <c r="C13" s="241"/>
-      <c r="D13" s="241"/>
-      <c r="E13" s="241"/>
-      <c r="F13" s="241"/>
-      <c r="G13" s="241"/>
-      <c r="H13" s="241"/>
-      <c r="I13" s="241"/>
-      <c r="J13" s="241"/>
-      <c r="K13" s="241"/>
-      <c r="L13" s="241"/>
-      <c r="M13" s="241"/>
-      <c r="N13" s="241"/>
-      <c r="O13" s="241"/>
-      <c r="P13" s="241"/>
-      <c r="Q13" s="241"/>
-      <c r="R13" s="241"/>
-      <c r="S13" s="241"/>
-      <c r="T13" s="241"/>
-      <c r="U13" s="241"/>
-      <c r="V13" s="241"/>
-      <c r="W13" s="241"/>
-      <c r="X13" s="241"/>
-      <c r="Y13" s="241"/>
-      <c r="Z13" s="241"/>
-      <c r="AA13" s="241"/>
-      <c r="AB13" s="241"/>
-      <c r="AC13" s="241"/>
-      <c r="AD13" s="241"/>
-      <c r="AE13" s="241"/>
-      <c r="AF13" s="241"/>
-      <c r="AG13" s="241"/>
-      <c r="AH13" s="241"/>
-      <c r="AI13" s="241"/>
-      <c r="AJ13" s="241"/>
-      <c r="AK13" s="241"/>
-      <c r="AL13" s="241"/>
-      <c r="AM13" s="241"/>
-      <c r="AN13" s="241"/>
-      <c r="AO13" s="241"/>
+      <c r="B13" s="184"/>
+      <c r="C13" s="184"/>
+      <c r="D13" s="184"/>
+      <c r="E13" s="184"/>
+      <c r="F13" s="184"/>
+      <c r="G13" s="184"/>
+      <c r="H13" s="184"/>
+      <c r="I13" s="184"/>
+      <c r="J13" s="184"/>
+      <c r="K13" s="184"/>
+      <c r="L13" s="184"/>
+      <c r="M13" s="184"/>
+      <c r="N13" s="184"/>
+      <c r="O13" s="184"/>
+      <c r="P13" s="184"/>
+      <c r="Q13" s="184"/>
+      <c r="R13" s="184"/>
+      <c r="S13" s="184"/>
+      <c r="T13" s="184"/>
+      <c r="U13" s="184"/>
+      <c r="V13" s="184"/>
+      <c r="W13" s="184"/>
+      <c r="X13" s="184"/>
+      <c r="Y13" s="184"/>
+      <c r="Z13" s="184"/>
+      <c r="AA13" s="184"/>
+      <c r="AB13" s="184"/>
+      <c r="AC13" s="184"/>
+      <c r="AD13" s="184"/>
+      <c r="AE13" s="184"/>
+      <c r="AF13" s="184"/>
+      <c r="AG13" s="184"/>
+      <c r="AH13" s="184"/>
+      <c r="AI13" s="184"/>
+      <c r="AJ13" s="184"/>
+      <c r="AK13" s="184"/>
+      <c r="AL13" s="184"/>
+      <c r="AM13" s="184"/>
+      <c r="AN13" s="184"/>
+      <c r="AO13" s="184"/>
     </row>
     <row r="14" spans="1:41" s="62" customFormat="1" ht="109.5" customHeight="1">
-      <c r="A14" s="239" t="s">
+      <c r="A14" s="176" t="s">
         <v>121</v>
       </c>
-      <c r="B14" s="239"/>
-      <c r="C14" s="239" t="s">
+      <c r="B14" s="176"/>
+      <c r="C14" s="176" t="s">
         <v>122</v>
       </c>
-      <c r="D14" s="239"/>
-      <c r="E14" s="239"/>
-      <c r="F14" s="239"/>
-      <c r="G14" s="239"/>
-      <c r="H14" s="239"/>
-      <c r="I14" s="263" t="s">
+      <c r="D14" s="176"/>
+      <c r="E14" s="176"/>
+      <c r="F14" s="176"/>
+      <c r="G14" s="176"/>
+      <c r="H14" s="176"/>
+      <c r="I14" s="185" t="s">
         <v>123</v>
       </c>
-      <c r="J14" s="246"/>
-      <c r="K14" s="246"/>
-      <c r="L14" s="246"/>
-      <c r="M14" s="246"/>
-      <c r="N14" s="247"/>
-      <c r="O14" s="247"/>
-      <c r="P14" s="247"/>
+      <c r="J14" s="180"/>
+      <c r="K14" s="180"/>
+      <c r="L14" s="180"/>
+      <c r="M14" s="180"/>
+      <c r="N14" s="181"/>
+      <c r="O14" s="181"/>
+      <c r="P14" s="181"/>
       <c r="Q14" s="67"/>
       <c r="R14" s="67"/>
-      <c r="S14" s="259" t="s">
+      <c r="S14" s="186" t="s">
         <v>124</v>
       </c>
-      <c r="T14" s="248"/>
-      <c r="U14" s="248"/>
-      <c r="V14" s="248"/>
-      <c r="W14" s="248"/>
+      <c r="T14" s="182"/>
+      <c r="U14" s="182"/>
+      <c r="V14" s="182"/>
+      <c r="W14" s="182"/>
       <c r="X14" s="71" t="s">
         <v>109</v>
       </c>
@@ -5999,42 +6011,42 @@
       <c r="AJ14" s="73"/>
       <c r="AK14" s="73"/>
       <c r="AL14" s="74"/>
-      <c r="AM14" s="239"/>
-      <c r="AN14" s="239"/>
+      <c r="AM14" s="176"/>
+      <c r="AN14" s="176"/>
       <c r="AO14" s="66"/>
     </row>
     <row r="15" spans="1:41" s="62" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A15" s="239" t="s">
+      <c r="A15" s="176" t="s">
         <v>125</v>
       </c>
-      <c r="B15" s="239"/>
-      <c r="C15" s="239" t="s">
+      <c r="B15" s="176"/>
+      <c r="C15" s="176" t="s">
         <v>126</v>
       </c>
-      <c r="D15" s="239"/>
-      <c r="E15" s="239"/>
-      <c r="F15" s="239"/>
-      <c r="G15" s="239"/>
-      <c r="H15" s="239"/>
-      <c r="I15" s="260" t="s">
+      <c r="D15" s="176"/>
+      <c r="E15" s="176"/>
+      <c r="F15" s="176"/>
+      <c r="G15" s="176"/>
+      <c r="H15" s="176"/>
+      <c r="I15" s="193" t="s">
         <v>126</v>
       </c>
-      <c r="J15" s="261"/>
-      <c r="K15" s="261"/>
-      <c r="L15" s="261"/>
-      <c r="M15" s="262"/>
-      <c r="N15" s="247"/>
-      <c r="O15" s="247"/>
-      <c r="P15" s="247"/>
+      <c r="J15" s="194"/>
+      <c r="K15" s="194"/>
+      <c r="L15" s="194"/>
+      <c r="M15" s="195"/>
+      <c r="N15" s="181"/>
+      <c r="O15" s="181"/>
+      <c r="P15" s="181"/>
       <c r="Q15" s="67"/>
       <c r="R15" s="67"/>
-      <c r="S15" s="248" t="s">
+      <c r="S15" s="182" t="s">
         <v>127</v>
       </c>
-      <c r="T15" s="248"/>
-      <c r="U15" s="248"/>
-      <c r="V15" s="248"/>
-      <c r="W15" s="248"/>
+      <c r="T15" s="182"/>
+      <c r="U15" s="182"/>
+      <c r="V15" s="182"/>
+      <c r="W15" s="182"/>
       <c r="X15" s="71" t="s">
         <v>109</v>
       </c>
@@ -6052,44 +6064,44 @@
       <c r="AJ15" s="73"/>
       <c r="AK15" s="73"/>
       <c r="AL15" s="74"/>
-      <c r="AM15" s="239"/>
-      <c r="AN15" s="239"/>
+      <c r="AM15" s="176"/>
+      <c r="AN15" s="176"/>
       <c r="AO15" s="66"/>
     </row>
     <row r="16" spans="1:41" s="62" customFormat="1" ht="99" customHeight="1">
-      <c r="A16" s="239" t="s">
+      <c r="A16" s="176" t="s">
         <v>128</v>
       </c>
-      <c r="B16" s="239"/>
-      <c r="C16" s="249" t="s">
+      <c r="B16" s="176"/>
+      <c r="C16" s="187" t="s">
         <v>129</v>
       </c>
-      <c r="D16" s="250"/>
-      <c r="E16" s="251"/>
-      <c r="F16" s="239" t="s">
+      <c r="D16" s="188"/>
+      <c r="E16" s="189"/>
+      <c r="F16" s="176" t="s">
         <v>130</v>
       </c>
-      <c r="G16" s="239"/>
-      <c r="H16" s="239"/>
-      <c r="I16" s="256" t="s">
+      <c r="G16" s="176"/>
+      <c r="H16" s="176"/>
+      <c r="I16" s="190" t="s">
         <v>131</v>
       </c>
-      <c r="J16" s="257"/>
-      <c r="K16" s="257"/>
-      <c r="L16" s="257"/>
-      <c r="M16" s="258"/>
-      <c r="N16" s="247"/>
-      <c r="O16" s="247"/>
-      <c r="P16" s="247"/>
+      <c r="J16" s="191"/>
+      <c r="K16" s="191"/>
+      <c r="L16" s="191"/>
+      <c r="M16" s="192"/>
+      <c r="N16" s="181"/>
+      <c r="O16" s="181"/>
+      <c r="P16" s="181"/>
       <c r="Q16" s="67"/>
       <c r="R16" s="67"/>
-      <c r="S16" s="259" t="s">
+      <c r="S16" s="186" t="s">
         <v>132</v>
       </c>
-      <c r="T16" s="248"/>
-      <c r="U16" s="248"/>
-      <c r="V16" s="248"/>
-      <c r="W16" s="248"/>
+      <c r="T16" s="182"/>
+      <c r="U16" s="182"/>
+      <c r="V16" s="182"/>
+      <c r="W16" s="182"/>
       <c r="X16" s="71" t="s">
         <v>109</v>
       </c>
@@ -6107,44 +6119,44 @@
       <c r="AJ16" s="73"/>
       <c r="AK16" s="73"/>
       <c r="AL16" s="74"/>
-      <c r="AM16" s="239"/>
-      <c r="AN16" s="239"/>
+      <c r="AM16" s="176"/>
+      <c r="AN16" s="176"/>
       <c r="AO16" s="66"/>
     </row>
     <row r="17" spans="1:46" s="62" customFormat="1" ht="125.25" customHeight="1">
-      <c r="A17" s="239" t="s">
+      <c r="A17" s="176" t="s">
         <v>133</v>
       </c>
-      <c r="B17" s="239"/>
-      <c r="C17" s="249" t="s">
+      <c r="B17" s="176"/>
+      <c r="C17" s="187" t="s">
         <v>134</v>
       </c>
-      <c r="D17" s="250"/>
-      <c r="E17" s="251"/>
-      <c r="F17" s="239" t="s">
+      <c r="D17" s="188"/>
+      <c r="E17" s="189"/>
+      <c r="F17" s="176" t="s">
         <v>130</v>
       </c>
-      <c r="G17" s="239"/>
-      <c r="H17" s="239"/>
-      <c r="I17" s="252" t="s">
+      <c r="G17" s="176"/>
+      <c r="H17" s="176"/>
+      <c r="I17" s="196" t="s">
         <v>135</v>
       </c>
-      <c r="J17" s="253"/>
-      <c r="K17" s="253"/>
-      <c r="L17" s="253"/>
-      <c r="M17" s="254"/>
-      <c r="N17" s="247"/>
-      <c r="O17" s="247"/>
-      <c r="P17" s="247"/>
+      <c r="J17" s="197"/>
+      <c r="K17" s="197"/>
+      <c r="L17" s="197"/>
+      <c r="M17" s="198"/>
+      <c r="N17" s="181"/>
+      <c r="O17" s="181"/>
+      <c r="P17" s="181"/>
       <c r="Q17" s="67"/>
       <c r="R17" s="67"/>
-      <c r="S17" s="171" t="s">
+      <c r="S17" s="199" t="s">
         <v>136</v>
       </c>
-      <c r="T17" s="255"/>
-      <c r="U17" s="255"/>
-      <c r="V17" s="255"/>
-      <c r="W17" s="172"/>
+      <c r="T17" s="200"/>
+      <c r="U17" s="200"/>
+      <c r="V17" s="200"/>
+      <c r="W17" s="201"/>
       <c r="X17" s="71" t="s">
         <v>109</v>
       </c>
@@ -6162,44 +6174,44 @@
       <c r="AJ17" s="73"/>
       <c r="AK17" s="73"/>
       <c r="AL17" s="74"/>
-      <c r="AM17" s="239"/>
-      <c r="AN17" s="239"/>
+      <c r="AM17" s="176"/>
+      <c r="AN17" s="176"/>
       <c r="AO17" s="66"/>
     </row>
     <row r="18" spans="1:46" s="62" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A18" s="239" t="s">
+      <c r="A18" s="176" t="s">
         <v>137</v>
       </c>
-      <c r="B18" s="239"/>
-      <c r="C18" s="239" t="s">
+      <c r="B18" s="176"/>
+      <c r="C18" s="176" t="s">
         <v>138</v>
       </c>
-      <c r="D18" s="239"/>
-      <c r="E18" s="239"/>
-      <c r="F18" s="239" t="s">
+      <c r="D18" s="176"/>
+      <c r="E18" s="176"/>
+      <c r="F18" s="176" t="s">
         <v>139</v>
       </c>
-      <c r="G18" s="239"/>
-      <c r="H18" s="239"/>
-      <c r="I18" s="246" t="s">
+      <c r="G18" s="176"/>
+      <c r="H18" s="176"/>
+      <c r="I18" s="180" t="s">
         <v>140</v>
       </c>
-      <c r="J18" s="246"/>
-      <c r="K18" s="246"/>
-      <c r="L18" s="246"/>
-      <c r="M18" s="246"/>
-      <c r="N18" s="247"/>
-      <c r="O18" s="247"/>
-      <c r="P18" s="247"/>
+      <c r="J18" s="180"/>
+      <c r="K18" s="180"/>
+      <c r="L18" s="180"/>
+      <c r="M18" s="180"/>
+      <c r="N18" s="181"/>
+      <c r="O18" s="181"/>
+      <c r="P18" s="181"/>
       <c r="Q18" s="67"/>
       <c r="R18" s="67"/>
-      <c r="S18" s="248" t="s">
+      <c r="S18" s="182" t="s">
         <v>141</v>
       </c>
-      <c r="T18" s="248"/>
-      <c r="U18" s="248"/>
-      <c r="V18" s="248"/>
-      <c r="W18" s="248"/>
+      <c r="T18" s="182"/>
+      <c r="U18" s="182"/>
+      <c r="V18" s="182"/>
+      <c r="W18" s="182"/>
       <c r="X18" s="71" t="s">
         <v>109</v>
       </c>
@@ -6217,44 +6229,44 @@
       <c r="AJ18" s="71"/>
       <c r="AK18" s="69"/>
       <c r="AL18" s="74"/>
-      <c r="AM18" s="239"/>
-      <c r="AN18" s="239"/>
+      <c r="AM18" s="176"/>
+      <c r="AN18" s="176"/>
       <c r="AO18" s="66"/>
     </row>
     <row r="19" spans="1:46" s="62" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A19" s="239" t="s">
+      <c r="A19" s="176" t="s">
         <v>142</v>
       </c>
-      <c r="B19" s="239"/>
-      <c r="C19" s="239" t="s">
+      <c r="B19" s="176"/>
+      <c r="C19" s="176" t="s">
         <v>143</v>
       </c>
-      <c r="D19" s="239"/>
-      <c r="E19" s="239"/>
-      <c r="F19" s="239" t="s">
+      <c r="D19" s="176"/>
+      <c r="E19" s="176"/>
+      <c r="F19" s="176" t="s">
         <v>144</v>
       </c>
-      <c r="G19" s="239"/>
-      <c r="H19" s="239"/>
-      <c r="I19" s="246" t="s">
+      <c r="G19" s="176"/>
+      <c r="H19" s="176"/>
+      <c r="I19" s="180" t="s">
         <v>145</v>
       </c>
-      <c r="J19" s="246"/>
-      <c r="K19" s="246"/>
-      <c r="L19" s="246"/>
-      <c r="M19" s="246"/>
-      <c r="N19" s="247"/>
-      <c r="O19" s="247"/>
-      <c r="P19" s="247"/>
+      <c r="J19" s="180"/>
+      <c r="K19" s="180"/>
+      <c r="L19" s="180"/>
+      <c r="M19" s="180"/>
+      <c r="N19" s="181"/>
+      <c r="O19" s="181"/>
+      <c r="P19" s="181"/>
       <c r="Q19" s="67"/>
       <c r="R19" s="67"/>
-      <c r="S19" s="248" t="s">
+      <c r="S19" s="182" t="s">
         <v>146</v>
       </c>
-      <c r="T19" s="248"/>
-      <c r="U19" s="248"/>
-      <c r="V19" s="248"/>
-      <c r="W19" s="248"/>
+      <c r="T19" s="182"/>
+      <c r="U19" s="182"/>
+      <c r="V19" s="182"/>
+      <c r="W19" s="182"/>
       <c r="X19" s="71" t="s">
         <v>109</v>
       </c>
@@ -6272,81 +6284,81 @@
       <c r="AJ19" s="71"/>
       <c r="AK19" s="69"/>
       <c r="AL19" s="74"/>
-      <c r="AM19" s="239"/>
-      <c r="AN19" s="239"/>
+      <c r="AM19" s="176"/>
+      <c r="AN19" s="176"/>
       <c r="AO19" s="66"/>
     </row>
     <row r="20" spans="1:46" s="62" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A20" s="240" t="s">
+      <c r="A20" s="183" t="s">
         <v>147</v>
       </c>
-      <c r="B20" s="241"/>
-      <c r="C20" s="241"/>
-      <c r="D20" s="241"/>
-      <c r="E20" s="241"/>
-      <c r="F20" s="241"/>
-      <c r="G20" s="241"/>
-      <c r="H20" s="241"/>
-      <c r="I20" s="241"/>
-      <c r="J20" s="241"/>
-      <c r="K20" s="241"/>
-      <c r="L20" s="241"/>
-      <c r="M20" s="241"/>
-      <c r="N20" s="241"/>
-      <c r="O20" s="241"/>
-      <c r="P20" s="241"/>
-      <c r="Q20" s="241"/>
-      <c r="R20" s="241"/>
-      <c r="S20" s="241"/>
-      <c r="T20" s="241"/>
-      <c r="U20" s="241"/>
-      <c r="V20" s="241"/>
-      <c r="W20" s="241"/>
-      <c r="X20" s="241"/>
-      <c r="Y20" s="241"/>
-      <c r="Z20" s="241"/>
-      <c r="AA20" s="241"/>
-      <c r="AB20" s="241"/>
-      <c r="AC20" s="241"/>
-      <c r="AD20" s="241"/>
-      <c r="AE20" s="241"/>
-      <c r="AF20" s="241"/>
-      <c r="AG20" s="241"/>
-      <c r="AH20" s="241"/>
-      <c r="AI20" s="241"/>
-      <c r="AJ20" s="241"/>
-      <c r="AK20" s="241"/>
-      <c r="AL20" s="241"/>
-      <c r="AM20" s="241"/>
-      <c r="AN20" s="241"/>
-      <c r="AO20" s="241"/>
+      <c r="B20" s="184"/>
+      <c r="C20" s="184"/>
+      <c r="D20" s="184"/>
+      <c r="E20" s="184"/>
+      <c r="F20" s="184"/>
+      <c r="G20" s="184"/>
+      <c r="H20" s="184"/>
+      <c r="I20" s="184"/>
+      <c r="J20" s="184"/>
+      <c r="K20" s="184"/>
+      <c r="L20" s="184"/>
+      <c r="M20" s="184"/>
+      <c r="N20" s="184"/>
+      <c r="O20" s="184"/>
+      <c r="P20" s="184"/>
+      <c r="Q20" s="184"/>
+      <c r="R20" s="184"/>
+      <c r="S20" s="184"/>
+      <c r="T20" s="184"/>
+      <c r="U20" s="184"/>
+      <c r="V20" s="184"/>
+      <c r="W20" s="184"/>
+      <c r="X20" s="184"/>
+      <c r="Y20" s="184"/>
+      <c r="Z20" s="184"/>
+      <c r="AA20" s="184"/>
+      <c r="AB20" s="184"/>
+      <c r="AC20" s="184"/>
+      <c r="AD20" s="184"/>
+      <c r="AE20" s="184"/>
+      <c r="AF20" s="184"/>
+      <c r="AG20" s="184"/>
+      <c r="AH20" s="184"/>
+      <c r="AI20" s="184"/>
+      <c r="AJ20" s="184"/>
+      <c r="AK20" s="184"/>
+      <c r="AL20" s="184"/>
+      <c r="AM20" s="184"/>
+      <c r="AN20" s="184"/>
+      <c r="AO20" s="184"/>
     </row>
     <row r="21" spans="1:46" s="81" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A21" s="242" t="s">
+      <c r="A21" s="208" t="s">
         <v>148</v>
       </c>
-      <c r="B21" s="243"/>
-      <c r="C21" s="243"/>
-      <c r="D21" s="243"/>
-      <c r="E21" s="243"/>
-      <c r="F21" s="243"/>
-      <c r="G21" s="243"/>
-      <c r="H21" s="243"/>
-      <c r="I21" s="243"/>
-      <c r="J21" s="243"/>
-      <c r="K21" s="243"/>
-      <c r="L21" s="243"/>
-      <c r="M21" s="243"/>
-      <c r="N21" s="243"/>
-      <c r="O21" s="243"/>
-      <c r="P21" s="243"/>
-      <c r="Q21" s="243"/>
-      <c r="R21" s="243"/>
-      <c r="S21" s="243"/>
-      <c r="T21" s="243"/>
-      <c r="U21" s="243"/>
-      <c r="V21" s="243"/>
-      <c r="W21" s="244"/>
+      <c r="B21" s="209"/>
+      <c r="C21" s="209"/>
+      <c r="D21" s="209"/>
+      <c r="E21" s="209"/>
+      <c r="F21" s="209"/>
+      <c r="G21" s="209"/>
+      <c r="H21" s="209"/>
+      <c r="I21" s="209"/>
+      <c r="J21" s="209"/>
+      <c r="K21" s="209"/>
+      <c r="L21" s="209"/>
+      <c r="M21" s="209"/>
+      <c r="N21" s="209"/>
+      <c r="O21" s="209"/>
+      <c r="P21" s="209"/>
+      <c r="Q21" s="209"/>
+      <c r="R21" s="209"/>
+      <c r="S21" s="209"/>
+      <c r="T21" s="209"/>
+      <c r="U21" s="209"/>
+      <c r="V21" s="209"/>
+      <c r="W21" s="210"/>
       <c r="X21" s="76"/>
       <c r="Y21" s="77"/>
       <c r="Z21" s="78"/>
@@ -6362,23 +6374,23 @@
       <c r="AJ21" s="77"/>
       <c r="AK21" s="77"/>
       <c r="AL21" s="78"/>
-      <c r="AM21" s="245"/>
-      <c r="AN21" s="245"/>
+      <c r="AM21" s="211"/>
+      <c r="AN21" s="211"/>
       <c r="AO21" s="80"/>
     </row>
     <row r="22" spans="1:46" s="62" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A22" s="157" t="s">
+      <c r="A22" s="177" t="s">
         <v>149</v>
       </c>
-      <c r="B22" s="158"/>
-      <c r="C22" s="164" t="s">
+      <c r="B22" s="179"/>
+      <c r="C22" s="203" t="s">
         <v>150</v>
       </c>
-      <c r="D22" s="164"/>
-      <c r="E22" s="164"/>
-      <c r="F22" s="159"/>
-      <c r="G22" s="159"/>
-      <c r="H22" s="159"/>
+      <c r="D22" s="203"/>
+      <c r="E22" s="203"/>
+      <c r="F22" s="204"/>
+      <c r="G22" s="204"/>
+      <c r="H22" s="204"/>
       <c r="I22" s="205" t="s">
         <v>151</v>
       </c>
@@ -6386,18 +6398,18 @@
       <c r="K22" s="205"/>
       <c r="L22" s="205"/>
       <c r="M22" s="205"/>
-      <c r="N22" s="162"/>
-      <c r="O22" s="162"/>
-      <c r="P22" s="162"/>
+      <c r="N22" s="206"/>
+      <c r="O22" s="206"/>
+      <c r="P22" s="206"/>
       <c r="Q22" s="83"/>
       <c r="R22" s="83"/>
-      <c r="S22" s="163" t="s">
+      <c r="S22" s="207" t="s">
         <v>152</v>
       </c>
-      <c r="T22" s="164"/>
-      <c r="U22" s="164"/>
-      <c r="V22" s="164"/>
-      <c r="W22" s="164"/>
+      <c r="T22" s="203"/>
+      <c r="U22" s="203"/>
+      <c r="V22" s="203"/>
+      <c r="W22" s="203"/>
       <c r="X22" s="71" t="s">
         <v>109</v>
       </c>
@@ -6415,23 +6427,23 @@
       <c r="AJ22" s="69"/>
       <c r="AK22" s="69"/>
       <c r="AL22" s="70"/>
-      <c r="AM22" s="229"/>
-      <c r="AN22" s="172"/>
+      <c r="AM22" s="202"/>
+      <c r="AN22" s="201"/>
       <c r="AO22" s="84"/>
     </row>
     <row r="23" spans="1:46" s="62" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A23" s="157" t="s">
+      <c r="A23" s="177" t="s">
         <v>153</v>
       </c>
-      <c r="B23" s="158"/>
-      <c r="C23" s="164" t="s">
+      <c r="B23" s="179"/>
+      <c r="C23" s="203" t="s">
         <v>154</v>
       </c>
-      <c r="D23" s="164"/>
-      <c r="E23" s="164"/>
-      <c r="F23" s="159"/>
-      <c r="G23" s="159"/>
-      <c r="H23" s="159"/>
+      <c r="D23" s="203"/>
+      <c r="E23" s="203"/>
+      <c r="F23" s="204"/>
+      <c r="G23" s="204"/>
+      <c r="H23" s="204"/>
       <c r="I23" s="205" t="s">
         <v>155</v>
       </c>
@@ -6439,18 +6451,18 @@
       <c r="K23" s="205"/>
       <c r="L23" s="205"/>
       <c r="M23" s="205"/>
-      <c r="N23" s="162"/>
-      <c r="O23" s="162"/>
-      <c r="P23" s="162"/>
+      <c r="N23" s="206"/>
+      <c r="O23" s="206"/>
+      <c r="P23" s="206"/>
       <c r="Q23" s="83"/>
       <c r="R23" s="83"/>
-      <c r="S23" s="163" t="s">
+      <c r="S23" s="207" t="s">
         <v>156</v>
       </c>
-      <c r="T23" s="164"/>
-      <c r="U23" s="164"/>
-      <c r="V23" s="164"/>
-      <c r="W23" s="164"/>
+      <c r="T23" s="203"/>
+      <c r="U23" s="203"/>
+      <c r="V23" s="203"/>
+      <c r="W23" s="203"/>
       <c r="X23" s="71" t="s">
         <v>109</v>
       </c>
@@ -6468,23 +6480,23 @@
       <c r="AJ23" s="69"/>
       <c r="AK23" s="69"/>
       <c r="AL23" s="70"/>
-      <c r="AM23" s="229"/>
-      <c r="AN23" s="172"/>
+      <c r="AM23" s="202"/>
+      <c r="AN23" s="201"/>
       <c r="AO23" s="84"/>
     </row>
     <row r="24" spans="1:46" s="62" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A24" s="157" t="s">
+      <c r="A24" s="177" t="s">
         <v>157</v>
       </c>
-      <c r="B24" s="158"/>
-      <c r="C24" s="164" t="s">
+      <c r="B24" s="179"/>
+      <c r="C24" s="203" t="s">
         <v>158</v>
       </c>
-      <c r="D24" s="164"/>
-      <c r="E24" s="164"/>
-      <c r="F24" s="159"/>
-      <c r="G24" s="159"/>
-      <c r="H24" s="159"/>
+      <c r="D24" s="203"/>
+      <c r="E24" s="203"/>
+      <c r="F24" s="204"/>
+      <c r="G24" s="204"/>
+      <c r="H24" s="204"/>
       <c r="I24" s="205" t="s">
         <v>159</v>
       </c>
@@ -6492,18 +6504,18 @@
       <c r="K24" s="205"/>
       <c r="L24" s="205"/>
       <c r="M24" s="205"/>
-      <c r="N24" s="162"/>
-      <c r="O24" s="162"/>
-      <c r="P24" s="162"/>
+      <c r="N24" s="206"/>
+      <c r="O24" s="206"/>
+      <c r="P24" s="206"/>
       <c r="Q24" s="83"/>
       <c r="R24" s="83"/>
-      <c r="S24" s="163" t="s">
+      <c r="S24" s="207" t="s">
         <v>160</v>
       </c>
-      <c r="T24" s="164"/>
-      <c r="U24" s="164"/>
-      <c r="V24" s="164"/>
-      <c r="W24" s="164"/>
+      <c r="T24" s="203"/>
+      <c r="U24" s="203"/>
+      <c r="V24" s="203"/>
+      <c r="W24" s="203"/>
       <c r="X24" s="71" t="s">
         <v>109</v>
       </c>
@@ -6521,44 +6533,44 @@
       <c r="AJ24" s="69"/>
       <c r="AK24" s="69"/>
       <c r="AL24" s="70"/>
-      <c r="AM24" s="229"/>
-      <c r="AN24" s="172"/>
+      <c r="AM24" s="202"/>
+      <c r="AN24" s="201"/>
       <c r="AO24" s="84"/>
     </row>
     <row r="25" spans="1:46" s="62" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A25" s="157" t="s">
+      <c r="A25" s="177" t="s">
         <v>161</v>
       </c>
-      <c r="B25" s="158"/>
-      <c r="C25" s="235" t="s">
+      <c r="B25" s="179"/>
+      <c r="C25" s="212" t="s">
         <v>162</v>
       </c>
-      <c r="D25" s="233" t="s">
+      <c r="D25" s="215" t="s">
         <v>163</v>
       </c>
-      <c r="E25" s="232"/>
-      <c r="F25" s="159"/>
-      <c r="G25" s="159"/>
-      <c r="H25" s="159"/>
-      <c r="I25" s="204" t="s">
+      <c r="E25" s="216"/>
+      <c r="F25" s="204"/>
+      <c r="G25" s="204"/>
+      <c r="H25" s="204"/>
+      <c r="I25" s="217" t="s">
         <v>164</v>
       </c>
       <c r="J25" s="205"/>
       <c r="K25" s="205"/>
       <c r="L25" s="205"/>
       <c r="M25" s="205"/>
-      <c r="N25" s="162"/>
-      <c r="O25" s="162"/>
-      <c r="P25" s="162"/>
+      <c r="N25" s="206"/>
+      <c r="O25" s="206"/>
+      <c r="P25" s="206"/>
       <c r="Q25" s="83"/>
       <c r="R25" s="83"/>
-      <c r="S25" s="163" t="s">
+      <c r="S25" s="207" t="s">
         <v>165</v>
       </c>
-      <c r="T25" s="164"/>
-      <c r="U25" s="164"/>
-      <c r="V25" s="164"/>
-      <c r="W25" s="164"/>
+      <c r="T25" s="203"/>
+      <c r="U25" s="203"/>
+      <c r="V25" s="203"/>
+      <c r="W25" s="203"/>
       <c r="X25" s="85" t="s">
         <v>166</v>
       </c>
@@ -6576,23 +6588,23 @@
       <c r="AJ25" s="69"/>
       <c r="AK25" s="69"/>
       <c r="AL25" s="70"/>
-      <c r="AM25" s="203"/>
-      <c r="AN25" s="203"/>
+      <c r="AM25" s="218"/>
+      <c r="AN25" s="218"/>
       <c r="AO25" s="84"/>
     </row>
     <row r="26" spans="1:46" s="62" customFormat="1" ht="29.45" customHeight="1">
-      <c r="A26" s="157" t="s">
+      <c r="A26" s="177" t="s">
         <v>167</v>
       </c>
-      <c r="B26" s="158"/>
-      <c r="C26" s="236"/>
-      <c r="D26" s="233" t="s">
+      <c r="B26" s="179"/>
+      <c r="C26" s="213"/>
+      <c r="D26" s="215" t="s">
         <v>168</v>
       </c>
-      <c r="E26" s="232"/>
-      <c r="F26" s="159"/>
-      <c r="G26" s="159"/>
-      <c r="H26" s="159"/>
+      <c r="E26" s="216"/>
+      <c r="F26" s="204"/>
+      <c r="G26" s="204"/>
+      <c r="H26" s="204"/>
       <c r="I26" s="205" t="s">
         <v>164</v>
       </c>
@@ -6600,18 +6612,18 @@
       <c r="K26" s="205"/>
       <c r="L26" s="205"/>
       <c r="M26" s="205"/>
-      <c r="N26" s="162"/>
-      <c r="O26" s="162"/>
-      <c r="P26" s="162"/>
+      <c r="N26" s="206"/>
+      <c r="O26" s="206"/>
+      <c r="P26" s="206"/>
       <c r="Q26" s="83"/>
       <c r="R26" s="83"/>
-      <c r="S26" s="163" t="s">
+      <c r="S26" s="207" t="s">
         <v>169</v>
       </c>
-      <c r="T26" s="164"/>
-      <c r="U26" s="164"/>
-      <c r="V26" s="164"/>
-      <c r="W26" s="164"/>
+      <c r="T26" s="203"/>
+      <c r="U26" s="203"/>
+      <c r="V26" s="203"/>
+      <c r="W26" s="203"/>
       <c r="X26" s="85" t="s">
         <v>166</v>
       </c>
@@ -6629,27 +6641,27 @@
       <c r="AJ26" s="69"/>
       <c r="AK26" s="69"/>
       <c r="AL26" s="70"/>
-      <c r="AM26" s="234"/>
-      <c r="AN26" s="234"/>
+      <c r="AM26" s="224"/>
+      <c r="AN26" s="224"/>
       <c r="AO26" s="84"/>
-      <c r="AQ26" s="230"/>
-      <c r="AR26" s="230"/>
-      <c r="AS26" s="230"/>
-      <c r="AT26" s="230"/>
+      <c r="AQ26" s="222"/>
+      <c r="AR26" s="222"/>
+      <c r="AS26" s="222"/>
+      <c r="AT26" s="222"/>
     </row>
     <row r="27" spans="1:46" s="62" customFormat="1" ht="33" customHeight="1">
-      <c r="A27" s="157" t="s">
+      <c r="A27" s="177" t="s">
         <v>170</v>
       </c>
-      <c r="B27" s="158"/>
-      <c r="C27" s="237"/>
-      <c r="D27" s="231" t="s">
+      <c r="B27" s="179"/>
+      <c r="C27" s="214"/>
+      <c r="D27" s="223" t="s">
         <v>171</v>
       </c>
-      <c r="E27" s="232"/>
-      <c r="F27" s="159"/>
-      <c r="G27" s="159"/>
-      <c r="H27" s="159"/>
+      <c r="E27" s="216"/>
+      <c r="F27" s="204"/>
+      <c r="G27" s="204"/>
+      <c r="H27" s="204"/>
       <c r="I27" s="205" t="s">
         <v>164</v>
       </c>
@@ -6657,18 +6669,18 @@
       <c r="K27" s="205"/>
       <c r="L27" s="205"/>
       <c r="M27" s="205"/>
-      <c r="N27" s="162"/>
-      <c r="O27" s="162"/>
-      <c r="P27" s="162"/>
+      <c r="N27" s="206"/>
+      <c r="O27" s="206"/>
+      <c r="P27" s="206"/>
       <c r="Q27" s="83"/>
       <c r="R27" s="83"/>
-      <c r="S27" s="163" t="s">
+      <c r="S27" s="207" t="s">
         <v>165</v>
       </c>
-      <c r="T27" s="164"/>
-      <c r="U27" s="164"/>
-      <c r="V27" s="164"/>
-      <c r="W27" s="164"/>
+      <c r="T27" s="203"/>
+      <c r="U27" s="203"/>
+      <c r="V27" s="203"/>
+      <c r="W27" s="203"/>
       <c r="X27" s="85" t="s">
         <v>166</v>
       </c>
@@ -6686,73 +6698,73 @@
       <c r="AJ27" s="69"/>
       <c r="AK27" s="69"/>
       <c r="AL27" s="70"/>
-      <c r="AM27" s="203"/>
-      <c r="AN27" s="203"/>
+      <c r="AM27" s="218"/>
+      <c r="AN27" s="218"/>
       <c r="AO27" s="84"/>
     </row>
-    <row r="28" spans="1:46" s="189" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A28" s="238" t="s">
+    <row r="28" spans="1:46" s="221" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A28" s="219" t="s">
         <v>172</v>
       </c>
-      <c r="B28" s="188"/>
-      <c r="C28" s="188"/>
-      <c r="D28" s="188"/>
-      <c r="E28" s="188"/>
-      <c r="F28" s="188"/>
-      <c r="G28" s="188"/>
-      <c r="H28" s="188"/>
-      <c r="I28" s="188"/>
-      <c r="J28" s="188"/>
-      <c r="K28" s="188"/>
-      <c r="L28" s="188"/>
-      <c r="M28" s="188"/>
-      <c r="N28" s="188"/>
-      <c r="O28" s="188"/>
-      <c r="P28" s="188"/>
-      <c r="Q28" s="188"/>
-      <c r="R28" s="188"/>
-      <c r="S28" s="188"/>
-      <c r="T28" s="188"/>
-      <c r="U28" s="188"/>
-      <c r="V28" s="188"/>
-      <c r="W28" s="188"/>
-      <c r="X28" s="188"/>
-      <c r="Y28" s="188"/>
-      <c r="Z28" s="188"/>
-      <c r="AA28" s="188"/>
-      <c r="AB28" s="188"/>
-      <c r="AC28" s="188"/>
-      <c r="AD28" s="188"/>
-      <c r="AE28" s="188"/>
-      <c r="AF28" s="188"/>
-      <c r="AG28" s="188"/>
-      <c r="AH28" s="188"/>
-      <c r="AI28" s="188"/>
-      <c r="AJ28" s="188"/>
-      <c r="AK28" s="188"/>
-      <c r="AL28" s="188"/>
-      <c r="AM28" s="188"/>
-      <c r="AN28" s="188"/>
-      <c r="AO28" s="188"/>
-      <c r="AP28" s="188"/>
-      <c r="AQ28" s="188"/>
-      <c r="AR28" s="188"/>
-      <c r="AS28" s="188"/>
-      <c r="AT28" s="188"/>
+      <c r="B28" s="220"/>
+      <c r="C28" s="220"/>
+      <c r="D28" s="220"/>
+      <c r="E28" s="220"/>
+      <c r="F28" s="220"/>
+      <c r="G28" s="220"/>
+      <c r="H28" s="220"/>
+      <c r="I28" s="220"/>
+      <c r="J28" s="220"/>
+      <c r="K28" s="220"/>
+      <c r="L28" s="220"/>
+      <c r="M28" s="220"/>
+      <c r="N28" s="220"/>
+      <c r="O28" s="220"/>
+      <c r="P28" s="220"/>
+      <c r="Q28" s="220"/>
+      <c r="R28" s="220"/>
+      <c r="S28" s="220"/>
+      <c r="T28" s="220"/>
+      <c r="U28" s="220"/>
+      <c r="V28" s="220"/>
+      <c r="W28" s="220"/>
+      <c r="X28" s="220"/>
+      <c r="Y28" s="220"/>
+      <c r="Z28" s="220"/>
+      <c r="AA28" s="220"/>
+      <c r="AB28" s="220"/>
+      <c r="AC28" s="220"/>
+      <c r="AD28" s="220"/>
+      <c r="AE28" s="220"/>
+      <c r="AF28" s="220"/>
+      <c r="AG28" s="220"/>
+      <c r="AH28" s="220"/>
+      <c r="AI28" s="220"/>
+      <c r="AJ28" s="220"/>
+      <c r="AK28" s="220"/>
+      <c r="AL28" s="220"/>
+      <c r="AM28" s="220"/>
+      <c r="AN28" s="220"/>
+      <c r="AO28" s="220"/>
+      <c r="AP28" s="220"/>
+      <c r="AQ28" s="220"/>
+      <c r="AR28" s="220"/>
+      <c r="AS28" s="220"/>
+      <c r="AT28" s="220"/>
     </row>
     <row r="29" spans="1:46" s="62" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A29" s="157" t="s">
+      <c r="A29" s="177" t="s">
         <v>173</v>
       </c>
-      <c r="B29" s="158"/>
-      <c r="C29" s="164" t="s">
+      <c r="B29" s="179"/>
+      <c r="C29" s="203" t="s">
         <v>174</v>
       </c>
-      <c r="D29" s="164"/>
-      <c r="E29" s="164"/>
-      <c r="F29" s="159"/>
-      <c r="G29" s="159"/>
-      <c r="H29" s="159"/>
+      <c r="D29" s="203"/>
+      <c r="E29" s="203"/>
+      <c r="F29" s="204"/>
+      <c r="G29" s="204"/>
+      <c r="H29" s="204"/>
       <c r="I29" s="205" t="s">
         <v>175</v>
       </c>
@@ -6760,18 +6772,18 @@
       <c r="K29" s="205"/>
       <c r="L29" s="205"/>
       <c r="M29" s="205"/>
-      <c r="N29" s="162"/>
-      <c r="O29" s="162"/>
-      <c r="P29" s="162"/>
+      <c r="N29" s="206"/>
+      <c r="O29" s="206"/>
+      <c r="P29" s="206"/>
       <c r="Q29" s="83"/>
       <c r="R29" s="83"/>
-      <c r="S29" s="163" t="s">
+      <c r="S29" s="207" t="s">
         <v>176</v>
       </c>
-      <c r="T29" s="164"/>
-      <c r="U29" s="164"/>
-      <c r="V29" s="164"/>
-      <c r="W29" s="164"/>
+      <c r="T29" s="203"/>
+      <c r="U29" s="203"/>
+      <c r="V29" s="203"/>
+      <c r="W29" s="203"/>
       <c r="X29" s="71" t="s">
         <v>109</v>
       </c>
@@ -6789,23 +6801,23 @@
       <c r="AJ29" s="69"/>
       <c r="AK29" s="69"/>
       <c r="AL29" s="70"/>
-      <c r="AM29" s="229"/>
-      <c r="AN29" s="172"/>
+      <c r="AM29" s="202"/>
+      <c r="AN29" s="201"/>
       <c r="AO29" s="84"/>
     </row>
     <row r="30" spans="1:46" s="62" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A30" s="157" t="s">
+      <c r="A30" s="177" t="s">
         <v>177</v>
       </c>
-      <c r="B30" s="158"/>
-      <c r="C30" s="164" t="s">
+      <c r="B30" s="179"/>
+      <c r="C30" s="203" t="s">
         <v>178</v>
       </c>
-      <c r="D30" s="164"/>
-      <c r="E30" s="164"/>
-      <c r="F30" s="159"/>
-      <c r="G30" s="159"/>
-      <c r="H30" s="159"/>
+      <c r="D30" s="203"/>
+      <c r="E30" s="203"/>
+      <c r="F30" s="204"/>
+      <c r="G30" s="204"/>
+      <c r="H30" s="204"/>
       <c r="I30" s="205" t="s">
         <v>155</v>
       </c>
@@ -6813,18 +6825,18 @@
       <c r="K30" s="205"/>
       <c r="L30" s="205"/>
       <c r="M30" s="205"/>
-      <c r="N30" s="162"/>
-      <c r="O30" s="162"/>
-      <c r="P30" s="162"/>
+      <c r="N30" s="206"/>
+      <c r="O30" s="206"/>
+      <c r="P30" s="206"/>
       <c r="Q30" s="83"/>
       <c r="R30" s="83"/>
-      <c r="S30" s="163" t="s">
+      <c r="S30" s="207" t="s">
         <v>179</v>
       </c>
-      <c r="T30" s="164"/>
-      <c r="U30" s="164"/>
-      <c r="V30" s="164"/>
-      <c r="W30" s="164"/>
+      <c r="T30" s="203"/>
+      <c r="U30" s="203"/>
+      <c r="V30" s="203"/>
+      <c r="W30" s="203"/>
       <c r="X30" s="71" t="s">
         <v>109</v>
       </c>
@@ -6842,23 +6854,23 @@
       <c r="AJ30" s="69"/>
       <c r="AK30" s="69"/>
       <c r="AL30" s="70"/>
-      <c r="AM30" s="229"/>
-      <c r="AN30" s="172"/>
+      <c r="AM30" s="202"/>
+      <c r="AN30" s="201"/>
       <c r="AO30" s="84"/>
     </row>
     <row r="31" spans="1:46" s="62" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A31" s="157" t="s">
+      <c r="A31" s="177" t="s">
         <v>180</v>
       </c>
-      <c r="B31" s="158"/>
-      <c r="C31" s="164" t="s">
+      <c r="B31" s="179"/>
+      <c r="C31" s="203" t="s">
         <v>181</v>
       </c>
-      <c r="D31" s="164"/>
-      <c r="E31" s="164"/>
-      <c r="F31" s="159"/>
-      <c r="G31" s="159"/>
-      <c r="H31" s="159"/>
+      <c r="D31" s="203"/>
+      <c r="E31" s="203"/>
+      <c r="F31" s="204"/>
+      <c r="G31" s="204"/>
+      <c r="H31" s="204"/>
       <c r="I31" s="205" t="s">
         <v>182</v>
       </c>
@@ -6866,18 +6878,18 @@
       <c r="K31" s="205"/>
       <c r="L31" s="205"/>
       <c r="M31" s="205"/>
-      <c r="N31" s="162"/>
-      <c r="O31" s="162"/>
-      <c r="P31" s="162"/>
+      <c r="N31" s="206"/>
+      <c r="O31" s="206"/>
+      <c r="P31" s="206"/>
       <c r="Q31" s="83"/>
       <c r="R31" s="83"/>
-      <c r="S31" s="163" t="s">
+      <c r="S31" s="207" t="s">
         <v>183</v>
       </c>
-      <c r="T31" s="164"/>
-      <c r="U31" s="164"/>
-      <c r="V31" s="164"/>
-      <c r="W31" s="164"/>
+      <c r="T31" s="203"/>
+      <c r="U31" s="203"/>
+      <c r="V31" s="203"/>
+      <c r="W31" s="203"/>
       <c r="X31" s="71" t="s">
         <v>109</v>
       </c>
@@ -6895,25 +6907,25 @@
       <c r="AJ31" s="69"/>
       <c r="AK31" s="69"/>
       <c r="AL31" s="70"/>
-      <c r="AM31" s="229"/>
-      <c r="AN31" s="172"/>
+      <c r="AM31" s="202"/>
+      <c r="AN31" s="201"/>
       <c r="AO31" s="84"/>
     </row>
     <row r="32" spans="1:46" s="62" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A32" s="157" t="s">
+      <c r="A32" s="177" t="s">
         <v>184</v>
       </c>
-      <c r="B32" s="158"/>
-      <c r="C32" s="235" t="s">
+      <c r="B32" s="179"/>
+      <c r="C32" s="212" t="s">
         <v>185</v>
       </c>
-      <c r="D32" s="233" t="s">
+      <c r="D32" s="215" t="s">
         <v>186</v>
       </c>
-      <c r="E32" s="232"/>
-      <c r="F32" s="159"/>
-      <c r="G32" s="159"/>
-      <c r="H32" s="159"/>
+      <c r="E32" s="216"/>
+      <c r="F32" s="204"/>
+      <c r="G32" s="204"/>
+      <c r="H32" s="204"/>
       <c r="I32" s="205" t="s">
         <v>187</v>
       </c>
@@ -6921,18 +6933,18 @@
       <c r="K32" s="205"/>
       <c r="L32" s="205"/>
       <c r="M32" s="205"/>
-      <c r="N32" s="162"/>
-      <c r="O32" s="162"/>
-      <c r="P32" s="162"/>
+      <c r="N32" s="206"/>
+      <c r="O32" s="206"/>
+      <c r="P32" s="206"/>
       <c r="Q32" s="83"/>
       <c r="R32" s="83"/>
-      <c r="S32" s="163" t="s">
+      <c r="S32" s="207" t="s">
         <v>188</v>
       </c>
-      <c r="T32" s="164"/>
-      <c r="U32" s="164"/>
-      <c r="V32" s="164"/>
-      <c r="W32" s="164"/>
+      <c r="T32" s="203"/>
+      <c r="U32" s="203"/>
+      <c r="V32" s="203"/>
+      <c r="W32" s="203"/>
       <c r="X32" s="71" t="s">
         <v>109</v>
       </c>
@@ -6950,23 +6962,23 @@
       <c r="AJ32" s="69"/>
       <c r="AK32" s="69"/>
       <c r="AL32" s="70"/>
-      <c r="AM32" s="203"/>
-      <c r="AN32" s="203"/>
+      <c r="AM32" s="218"/>
+      <c r="AN32" s="218"/>
       <c r="AO32" s="84"/>
     </row>
     <row r="33" spans="1:46" s="62" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A33" s="157" t="s">
+      <c r="A33" s="177" t="s">
         <v>189</v>
       </c>
-      <c r="B33" s="158"/>
-      <c r="C33" s="236"/>
-      <c r="D33" s="233" t="s">
+      <c r="B33" s="179"/>
+      <c r="C33" s="213"/>
+      <c r="D33" s="215" t="s">
         <v>190</v>
       </c>
-      <c r="E33" s="232"/>
-      <c r="F33" s="159"/>
-      <c r="G33" s="159"/>
-      <c r="H33" s="159"/>
+      <c r="E33" s="216"/>
+      <c r="F33" s="204"/>
+      <c r="G33" s="204"/>
+      <c r="H33" s="204"/>
       <c r="I33" s="205" t="s">
         <v>187</v>
       </c>
@@ -6974,18 +6986,18 @@
       <c r="K33" s="205"/>
       <c r="L33" s="205"/>
       <c r="M33" s="205"/>
-      <c r="N33" s="162"/>
-      <c r="O33" s="162"/>
-      <c r="P33" s="162"/>
+      <c r="N33" s="206"/>
+      <c r="O33" s="206"/>
+      <c r="P33" s="206"/>
       <c r="Q33" s="83"/>
       <c r="R33" s="83"/>
-      <c r="S33" s="163" t="s">
+      <c r="S33" s="207" t="s">
         <v>191</v>
       </c>
-      <c r="T33" s="164"/>
-      <c r="U33" s="164"/>
-      <c r="V33" s="164"/>
-      <c r="W33" s="164"/>
+      <c r="T33" s="203"/>
+      <c r="U33" s="203"/>
+      <c r="V33" s="203"/>
+      <c r="W33" s="203"/>
       <c r="X33" s="71" t="s">
         <v>109</v>
       </c>
@@ -7003,27 +7015,27 @@
       <c r="AJ33" s="69"/>
       <c r="AK33" s="69"/>
       <c r="AL33" s="70"/>
-      <c r="AM33" s="234"/>
-      <c r="AN33" s="234"/>
+      <c r="AM33" s="224"/>
+      <c r="AN33" s="224"/>
       <c r="AO33" s="84"/>
-      <c r="AQ33" s="230"/>
-      <c r="AR33" s="230"/>
-      <c r="AS33" s="230"/>
-      <c r="AT33" s="230"/>
+      <c r="AQ33" s="222"/>
+      <c r="AR33" s="222"/>
+      <c r="AS33" s="222"/>
+      <c r="AT33" s="222"/>
     </row>
     <row r="34" spans="1:46" s="62" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A34" s="157" t="s">
+      <c r="A34" s="177" t="s">
         <v>192</v>
       </c>
-      <c r="B34" s="158"/>
-      <c r="C34" s="237"/>
-      <c r="D34" s="231" t="s">
+      <c r="B34" s="179"/>
+      <c r="C34" s="214"/>
+      <c r="D34" s="223" t="s">
         <v>193</v>
       </c>
-      <c r="E34" s="232"/>
-      <c r="F34" s="159"/>
-      <c r="G34" s="159"/>
-      <c r="H34" s="159"/>
+      <c r="E34" s="216"/>
+      <c r="F34" s="204"/>
+      <c r="G34" s="204"/>
+      <c r="H34" s="204"/>
       <c r="I34" s="205" t="s">
         <v>187</v>
       </c>
@@ -7031,18 +7043,18 @@
       <c r="K34" s="205"/>
       <c r="L34" s="205"/>
       <c r="M34" s="205"/>
-      <c r="N34" s="162"/>
-      <c r="O34" s="162"/>
-      <c r="P34" s="162"/>
+      <c r="N34" s="206"/>
+      <c r="O34" s="206"/>
+      <c r="P34" s="206"/>
       <c r="Q34" s="83"/>
       <c r="R34" s="83"/>
-      <c r="S34" s="163" t="s">
+      <c r="S34" s="207" t="s">
         <v>188</v>
       </c>
-      <c r="T34" s="164"/>
-      <c r="U34" s="164"/>
-      <c r="V34" s="164"/>
-      <c r="W34" s="164"/>
+      <c r="T34" s="203"/>
+      <c r="U34" s="203"/>
+      <c r="V34" s="203"/>
+      <c r="W34" s="203"/>
       <c r="X34" s="71" t="s">
         <v>109</v>
       </c>
@@ -7060,73 +7072,73 @@
       <c r="AJ34" s="69"/>
       <c r="AK34" s="69"/>
       <c r="AL34" s="70"/>
-      <c r="AM34" s="203"/>
-      <c r="AN34" s="203"/>
+      <c r="AM34" s="218"/>
+      <c r="AN34" s="218"/>
       <c r="AO34" s="84"/>
     </row>
-    <row r="35" spans="1:46" s="189" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A35" s="187" t="s">
+    <row r="35" spans="1:46" s="221" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A35" s="225" t="s">
         <v>194</v>
       </c>
-      <c r="B35" s="188"/>
-      <c r="C35" s="188"/>
-      <c r="D35" s="188"/>
-      <c r="E35" s="188"/>
-      <c r="F35" s="188"/>
-      <c r="G35" s="188"/>
-      <c r="H35" s="188"/>
-      <c r="I35" s="188"/>
-      <c r="J35" s="188"/>
-      <c r="K35" s="188"/>
-      <c r="L35" s="188"/>
-      <c r="M35" s="188"/>
-      <c r="N35" s="188"/>
-      <c r="O35" s="188"/>
-      <c r="P35" s="188"/>
-      <c r="Q35" s="188"/>
-      <c r="R35" s="188"/>
-      <c r="S35" s="188"/>
-      <c r="T35" s="188"/>
-      <c r="U35" s="188"/>
-      <c r="V35" s="188"/>
-      <c r="W35" s="188"/>
-      <c r="X35" s="188"/>
-      <c r="Y35" s="188"/>
-      <c r="Z35" s="188"/>
-      <c r="AA35" s="188"/>
-      <c r="AB35" s="188"/>
-      <c r="AC35" s="188"/>
-      <c r="AD35" s="188"/>
-      <c r="AE35" s="188"/>
-      <c r="AF35" s="188"/>
-      <c r="AG35" s="188"/>
-      <c r="AH35" s="188"/>
-      <c r="AI35" s="188"/>
-      <c r="AJ35" s="188"/>
-      <c r="AK35" s="188"/>
-      <c r="AL35" s="188"/>
-      <c r="AM35" s="188"/>
-      <c r="AN35" s="188"/>
-      <c r="AO35" s="188"/>
-      <c r="AP35" s="188"/>
-      <c r="AQ35" s="188"/>
-      <c r="AR35" s="188"/>
-      <c r="AS35" s="188"/>
-      <c r="AT35" s="188"/>
+      <c r="B35" s="220"/>
+      <c r="C35" s="220"/>
+      <c r="D35" s="220"/>
+      <c r="E35" s="220"/>
+      <c r="F35" s="220"/>
+      <c r="G35" s="220"/>
+      <c r="H35" s="220"/>
+      <c r="I35" s="220"/>
+      <c r="J35" s="220"/>
+      <c r="K35" s="220"/>
+      <c r="L35" s="220"/>
+      <c r="M35" s="220"/>
+      <c r="N35" s="220"/>
+      <c r="O35" s="220"/>
+      <c r="P35" s="220"/>
+      <c r="Q35" s="220"/>
+      <c r="R35" s="220"/>
+      <c r="S35" s="220"/>
+      <c r="T35" s="220"/>
+      <c r="U35" s="220"/>
+      <c r="V35" s="220"/>
+      <c r="W35" s="220"/>
+      <c r="X35" s="220"/>
+      <c r="Y35" s="220"/>
+      <c r="Z35" s="220"/>
+      <c r="AA35" s="220"/>
+      <c r="AB35" s="220"/>
+      <c r="AC35" s="220"/>
+      <c r="AD35" s="220"/>
+      <c r="AE35" s="220"/>
+      <c r="AF35" s="220"/>
+      <c r="AG35" s="220"/>
+      <c r="AH35" s="220"/>
+      <c r="AI35" s="220"/>
+      <c r="AJ35" s="220"/>
+      <c r="AK35" s="220"/>
+      <c r="AL35" s="220"/>
+      <c r="AM35" s="220"/>
+      <c r="AN35" s="220"/>
+      <c r="AO35" s="220"/>
+      <c r="AP35" s="220"/>
+      <c r="AQ35" s="220"/>
+      <c r="AR35" s="220"/>
+      <c r="AS35" s="220"/>
+      <c r="AT35" s="220"/>
     </row>
     <row r="36" spans="1:46" s="62" customFormat="1" ht="27.6" customHeight="1">
-      <c r="A36" s="157" t="s">
+      <c r="A36" s="177" t="s">
         <v>195</v>
       </c>
-      <c r="B36" s="158"/>
-      <c r="C36" s="164" t="s">
+      <c r="B36" s="179"/>
+      <c r="C36" s="203" t="s">
         <v>196</v>
       </c>
-      <c r="D36" s="164"/>
-      <c r="E36" s="164"/>
-      <c r="F36" s="159"/>
-      <c r="G36" s="159"/>
-      <c r="H36" s="159"/>
+      <c r="D36" s="203"/>
+      <c r="E36" s="203"/>
+      <c r="F36" s="204"/>
+      <c r="G36" s="204"/>
+      <c r="H36" s="204"/>
       <c r="I36" s="205" t="s">
         <v>197</v>
       </c>
@@ -7134,18 +7146,18 @@
       <c r="K36" s="205"/>
       <c r="L36" s="205"/>
       <c r="M36" s="205"/>
-      <c r="N36" s="162"/>
-      <c r="O36" s="162"/>
-      <c r="P36" s="162"/>
+      <c r="N36" s="206"/>
+      <c r="O36" s="206"/>
+      <c r="P36" s="206"/>
       <c r="Q36" s="83"/>
       <c r="R36" s="83"/>
-      <c r="S36" s="163" t="s">
+      <c r="S36" s="207" t="s">
         <v>198</v>
       </c>
-      <c r="T36" s="164"/>
-      <c r="U36" s="164"/>
-      <c r="V36" s="164"/>
-      <c r="W36" s="164"/>
+      <c r="T36" s="203"/>
+      <c r="U36" s="203"/>
+      <c r="V36" s="203"/>
+      <c r="W36" s="203"/>
       <c r="X36" s="71" t="s">
         <v>109</v>
       </c>
@@ -7163,23 +7175,23 @@
       <c r="AJ36" s="69"/>
       <c r="AK36" s="69"/>
       <c r="AL36" s="70"/>
-      <c r="AM36" s="229"/>
-      <c r="AN36" s="172"/>
+      <c r="AM36" s="202"/>
+      <c r="AN36" s="201"/>
       <c r="AO36" s="84"/>
     </row>
     <row r="37" spans="1:46" s="62" customFormat="1" ht="27.6" customHeight="1">
-      <c r="A37" s="157" t="s">
+      <c r="A37" s="177" t="s">
         <v>199</v>
       </c>
-      <c r="B37" s="158"/>
-      <c r="C37" s="164" t="s">
+      <c r="B37" s="179"/>
+      <c r="C37" s="203" t="s">
         <v>200</v>
       </c>
-      <c r="D37" s="164"/>
-      <c r="E37" s="164"/>
-      <c r="F37" s="159"/>
-      <c r="G37" s="159"/>
-      <c r="H37" s="159"/>
+      <c r="D37" s="203"/>
+      <c r="E37" s="203"/>
+      <c r="F37" s="204"/>
+      <c r="G37" s="204"/>
+      <c r="H37" s="204"/>
       <c r="I37" s="205" t="s">
         <v>155</v>
       </c>
@@ -7187,18 +7199,18 @@
       <c r="K37" s="205"/>
       <c r="L37" s="205"/>
       <c r="M37" s="205"/>
-      <c r="N37" s="162"/>
-      <c r="O37" s="162"/>
-      <c r="P37" s="162"/>
+      <c r="N37" s="206"/>
+      <c r="O37" s="206"/>
+      <c r="P37" s="206"/>
       <c r="Q37" s="83"/>
       <c r="R37" s="83"/>
-      <c r="S37" s="163" t="s">
+      <c r="S37" s="207" t="s">
         <v>179</v>
       </c>
-      <c r="T37" s="164"/>
-      <c r="U37" s="164"/>
-      <c r="V37" s="164"/>
-      <c r="W37" s="164"/>
+      <c r="T37" s="203"/>
+      <c r="U37" s="203"/>
+      <c r="V37" s="203"/>
+      <c r="W37" s="203"/>
       <c r="X37" s="71" t="s">
         <v>109</v>
       </c>
@@ -7216,23 +7228,23 @@
       <c r="AJ37" s="69"/>
       <c r="AK37" s="69"/>
       <c r="AL37" s="70"/>
-      <c r="AM37" s="229"/>
-      <c r="AN37" s="172"/>
+      <c r="AM37" s="202"/>
+      <c r="AN37" s="201"/>
       <c r="AO37" s="84"/>
     </row>
     <row r="38" spans="1:46" s="62" customFormat="1" ht="27.6" customHeight="1">
-      <c r="A38" s="157" t="s">
+      <c r="A38" s="177" t="s">
         <v>201</v>
       </c>
-      <c r="B38" s="158"/>
-      <c r="C38" s="164" t="s">
+      <c r="B38" s="179"/>
+      <c r="C38" s="203" t="s">
         <v>202</v>
       </c>
-      <c r="D38" s="164"/>
-      <c r="E38" s="164"/>
-      <c r="F38" s="159"/>
-      <c r="G38" s="159"/>
-      <c r="H38" s="159"/>
+      <c r="D38" s="203"/>
+      <c r="E38" s="203"/>
+      <c r="F38" s="204"/>
+      <c r="G38" s="204"/>
+      <c r="H38" s="204"/>
       <c r="I38" s="205" t="s">
         <v>203</v>
       </c>
@@ -7240,18 +7252,18 @@
       <c r="K38" s="205"/>
       <c r="L38" s="205"/>
       <c r="M38" s="205"/>
-      <c r="N38" s="162"/>
-      <c r="O38" s="162"/>
-      <c r="P38" s="162"/>
+      <c r="N38" s="206"/>
+      <c r="O38" s="206"/>
+      <c r="P38" s="206"/>
       <c r="Q38" s="83"/>
       <c r="R38" s="83"/>
-      <c r="S38" s="163" t="s">
+      <c r="S38" s="207" t="s">
         <v>204</v>
       </c>
-      <c r="T38" s="164"/>
-      <c r="U38" s="164"/>
-      <c r="V38" s="164"/>
-      <c r="W38" s="164"/>
+      <c r="T38" s="203"/>
+      <c r="U38" s="203"/>
+      <c r="V38" s="203"/>
+      <c r="W38" s="203"/>
       <c r="X38" s="71" t="s">
         <v>109</v>
       </c>
@@ -7269,44 +7281,44 @@
       <c r="AJ38" s="69"/>
       <c r="AK38" s="69"/>
       <c r="AL38" s="70"/>
-      <c r="AM38" s="229"/>
-      <c r="AN38" s="172"/>
+      <c r="AM38" s="202"/>
+      <c r="AN38" s="201"/>
       <c r="AO38" s="84"/>
     </row>
     <row r="39" spans="1:46" s="91" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A39" s="157" t="s">
+      <c r="A39" s="177" t="s">
         <v>205</v>
       </c>
-      <c r="B39" s="158"/>
-      <c r="C39" s="226" t="s">
+      <c r="B39" s="179"/>
+      <c r="C39" s="233" t="s">
         <v>206</v>
       </c>
-      <c r="D39" s="224" t="s">
+      <c r="D39" s="228" t="s">
         <v>207</v>
       </c>
-      <c r="E39" s="219"/>
-      <c r="F39" s="220"/>
-      <c r="G39" s="220"/>
-      <c r="H39" s="220"/>
-      <c r="I39" s="221" t="s">
+      <c r="E39" s="229"/>
+      <c r="F39" s="230"/>
+      <c r="G39" s="230"/>
+      <c r="H39" s="230"/>
+      <c r="I39" s="231" t="s">
         <v>208</v>
       </c>
-      <c r="J39" s="221"/>
-      <c r="K39" s="221"/>
-      <c r="L39" s="221"/>
-      <c r="M39" s="221"/>
-      <c r="N39" s="162"/>
-      <c r="O39" s="162"/>
-      <c r="P39" s="162"/>
+      <c r="J39" s="231"/>
+      <c r="K39" s="231"/>
+      <c r="L39" s="231"/>
+      <c r="M39" s="231"/>
+      <c r="N39" s="206"/>
+      <c r="O39" s="206"/>
+      <c r="P39" s="206"/>
       <c r="Q39" s="86"/>
       <c r="R39" s="86"/>
-      <c r="S39" s="222" t="s">
+      <c r="S39" s="226" t="s">
         <v>209</v>
       </c>
-      <c r="T39" s="162"/>
-      <c r="U39" s="162"/>
-      <c r="V39" s="162"/>
-      <c r="W39" s="162"/>
+      <c r="T39" s="206"/>
+      <c r="U39" s="206"/>
+      <c r="V39" s="206"/>
+      <c r="W39" s="206"/>
       <c r="X39" s="71" t="s">
         <v>109</v>
       </c>
@@ -7324,42 +7336,42 @@
       <c r="AJ39" s="87"/>
       <c r="AK39" s="87"/>
       <c r="AL39" s="88"/>
-      <c r="AM39" s="223"/>
-      <c r="AN39" s="223"/>
+      <c r="AM39" s="227"/>
+      <c r="AN39" s="227"/>
       <c r="AO39" s="90"/>
     </row>
     <row r="40" spans="1:46" s="91" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A40" s="157" t="s">
+      <c r="A40" s="177" t="s">
         <v>210</v>
       </c>
-      <c r="B40" s="158"/>
-      <c r="C40" s="227"/>
-      <c r="D40" s="224" t="s">
+      <c r="B40" s="179"/>
+      <c r="C40" s="234"/>
+      <c r="D40" s="228" t="s">
         <v>211</v>
       </c>
-      <c r="E40" s="219"/>
-      <c r="F40" s="220"/>
-      <c r="G40" s="220"/>
-      <c r="H40" s="220"/>
-      <c r="I40" s="221" t="s">
+      <c r="E40" s="229"/>
+      <c r="F40" s="230"/>
+      <c r="G40" s="230"/>
+      <c r="H40" s="230"/>
+      <c r="I40" s="231" t="s">
         <v>208</v>
       </c>
-      <c r="J40" s="221"/>
-      <c r="K40" s="221"/>
-      <c r="L40" s="221"/>
-      <c r="M40" s="221"/>
-      <c r="N40" s="162"/>
-      <c r="O40" s="162"/>
-      <c r="P40" s="162"/>
+      <c r="J40" s="231"/>
+      <c r="K40" s="231"/>
+      <c r="L40" s="231"/>
+      <c r="M40" s="231"/>
+      <c r="N40" s="206"/>
+      <c r="O40" s="206"/>
+      <c r="P40" s="206"/>
       <c r="Q40" s="86"/>
       <c r="R40" s="86"/>
-      <c r="S40" s="222" t="s">
+      <c r="S40" s="226" t="s">
         <v>212</v>
       </c>
-      <c r="T40" s="162"/>
-      <c r="U40" s="162"/>
-      <c r="V40" s="162"/>
-      <c r="W40" s="162"/>
+      <c r="T40" s="206"/>
+      <c r="U40" s="206"/>
+      <c r="V40" s="206"/>
+      <c r="W40" s="206"/>
       <c r="X40" s="92" t="s">
         <v>166</v>
       </c>
@@ -7377,46 +7389,46 @@
       <c r="AJ40" s="87"/>
       <c r="AK40" s="87"/>
       <c r="AL40" s="88"/>
-      <c r="AM40" s="225"/>
-      <c r="AN40" s="225"/>
+      <c r="AM40" s="232"/>
+      <c r="AN40" s="232"/>
       <c r="AO40" s="90"/>
-      <c r="AQ40" s="217"/>
-      <c r="AR40" s="217"/>
-      <c r="AS40" s="217"/>
-      <c r="AT40" s="217"/>
+      <c r="AQ40" s="247"/>
+      <c r="AR40" s="247"/>
+      <c r="AS40" s="247"/>
+      <c r="AT40" s="247"/>
     </row>
     <row r="41" spans="1:46" s="91" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A41" s="157" t="s">
+      <c r="A41" s="177" t="s">
         <v>213</v>
       </c>
-      <c r="B41" s="158"/>
-      <c r="C41" s="228"/>
-      <c r="D41" s="218" t="s">
+      <c r="B41" s="179"/>
+      <c r="C41" s="235"/>
+      <c r="D41" s="248" t="s">
         <v>214</v>
       </c>
-      <c r="E41" s="219"/>
-      <c r="F41" s="220"/>
-      <c r="G41" s="220"/>
-      <c r="H41" s="220"/>
-      <c r="I41" s="221" t="s">
+      <c r="E41" s="229"/>
+      <c r="F41" s="230"/>
+      <c r="G41" s="230"/>
+      <c r="H41" s="230"/>
+      <c r="I41" s="231" t="s">
         <v>208</v>
       </c>
-      <c r="J41" s="221"/>
-      <c r="K41" s="221"/>
-      <c r="L41" s="221"/>
-      <c r="M41" s="221"/>
-      <c r="N41" s="162"/>
-      <c r="O41" s="162"/>
-      <c r="P41" s="162"/>
+      <c r="J41" s="231"/>
+      <c r="K41" s="231"/>
+      <c r="L41" s="231"/>
+      <c r="M41" s="231"/>
+      <c r="N41" s="206"/>
+      <c r="O41" s="206"/>
+      <c r="P41" s="206"/>
       <c r="Q41" s="86"/>
       <c r="R41" s="86"/>
-      <c r="S41" s="222" t="s">
+      <c r="S41" s="226" t="s">
         <v>209</v>
       </c>
-      <c r="T41" s="162"/>
-      <c r="U41" s="162"/>
-      <c r="V41" s="162"/>
-      <c r="W41" s="162"/>
+      <c r="T41" s="206"/>
+      <c r="U41" s="206"/>
+      <c r="V41" s="206"/>
+      <c r="W41" s="206"/>
       <c r="X41" s="92" t="s">
         <v>109</v>
       </c>
@@ -7434,85 +7446,85 @@
       <c r="AJ41" s="87"/>
       <c r="AK41" s="87"/>
       <c r="AL41" s="88"/>
-      <c r="AM41" s="223"/>
-      <c r="AN41" s="223"/>
+      <c r="AM41" s="227"/>
+      <c r="AN41" s="227"/>
       <c r="AO41" s="90"/>
     </row>
     <row r="42" spans="1:46" s="93" customFormat="1" ht="14.1">
-      <c r="A42" s="213" t="s">
+      <c r="A42" s="236" t="s">
         <v>215</v>
       </c>
-      <c r="B42" s="214"/>
-      <c r="C42" s="215"/>
-      <c r="D42" s="215"/>
-      <c r="E42" s="215"/>
-      <c r="F42" s="214"/>
-      <c r="G42" s="214"/>
-      <c r="H42" s="214"/>
-      <c r="I42" s="214"/>
-      <c r="J42" s="214"/>
-      <c r="K42" s="214"/>
-      <c r="L42" s="214"/>
-      <c r="M42" s="214"/>
-      <c r="N42" s="214"/>
-      <c r="O42" s="214"/>
-      <c r="P42" s="214"/>
-      <c r="Q42" s="214"/>
-      <c r="R42" s="214"/>
-      <c r="S42" s="214"/>
-      <c r="T42" s="214"/>
-      <c r="U42" s="214"/>
-      <c r="V42" s="214"/>
-      <c r="W42" s="214"/>
-      <c r="X42" s="214"/>
-      <c r="Y42" s="214"/>
-      <c r="Z42" s="214"/>
-      <c r="AA42" s="214"/>
-      <c r="AB42" s="214"/>
-      <c r="AC42" s="214"/>
-      <c r="AD42" s="214"/>
-      <c r="AE42" s="214"/>
-      <c r="AF42" s="214"/>
-      <c r="AG42" s="214"/>
-      <c r="AH42" s="214"/>
-      <c r="AI42" s="214"/>
-      <c r="AJ42" s="214"/>
-      <c r="AK42" s="214"/>
-      <c r="AL42" s="214"/>
-      <c r="AM42" s="214"/>
-      <c r="AN42" s="214"/>
-      <c r="AO42" s="216"/>
+      <c r="B42" s="237"/>
+      <c r="C42" s="238"/>
+      <c r="D42" s="238"/>
+      <c r="E42" s="238"/>
+      <c r="F42" s="237"/>
+      <c r="G42" s="237"/>
+      <c r="H42" s="237"/>
+      <c r="I42" s="237"/>
+      <c r="J42" s="237"/>
+      <c r="K42" s="237"/>
+      <c r="L42" s="237"/>
+      <c r="M42" s="237"/>
+      <c r="N42" s="237"/>
+      <c r="O42" s="237"/>
+      <c r="P42" s="237"/>
+      <c r="Q42" s="237"/>
+      <c r="R42" s="237"/>
+      <c r="S42" s="237"/>
+      <c r="T42" s="237"/>
+      <c r="U42" s="237"/>
+      <c r="V42" s="237"/>
+      <c r="W42" s="237"/>
+      <c r="X42" s="237"/>
+      <c r="Y42" s="237"/>
+      <c r="Z42" s="237"/>
+      <c r="AA42" s="237"/>
+      <c r="AB42" s="237"/>
+      <c r="AC42" s="237"/>
+      <c r="AD42" s="237"/>
+      <c r="AE42" s="237"/>
+      <c r="AF42" s="237"/>
+      <c r="AG42" s="237"/>
+      <c r="AH42" s="237"/>
+      <c r="AI42" s="237"/>
+      <c r="AJ42" s="237"/>
+      <c r="AK42" s="237"/>
+      <c r="AL42" s="237"/>
+      <c r="AM42" s="237"/>
+      <c r="AN42" s="237"/>
+      <c r="AO42" s="239"/>
     </row>
     <row r="43" spans="1:46" s="101" customFormat="1" ht="33.950000000000003" customHeight="1">
-      <c r="A43" s="157" t="s">
+      <c r="A43" s="177" t="s">
         <v>216</v>
       </c>
-      <c r="B43" s="158"/>
+      <c r="B43" s="179"/>
       <c r="C43" s="311" t="s">
         <v>217</v>
       </c>
       <c r="D43" s="312"/>
       <c r="E43" s="313"/>
-      <c r="F43" s="208"/>
-      <c r="G43" s="209"/>
-      <c r="H43" s="209"/>
-      <c r="I43" s="210"/>
-      <c r="J43" s="210"/>
-      <c r="K43" s="210"/>
-      <c r="L43" s="210"/>
-      <c r="M43" s="210"/>
-      <c r="N43" s="211"/>
-      <c r="O43" s="212"/>
-      <c r="P43" s="212"/>
+      <c r="F43" s="240"/>
+      <c r="G43" s="241"/>
+      <c r="H43" s="241"/>
+      <c r="I43" s="242"/>
+      <c r="J43" s="242"/>
+      <c r="K43" s="242"/>
+      <c r="L43" s="242"/>
+      <c r="M43" s="242"/>
+      <c r="N43" s="243"/>
+      <c r="O43" s="244"/>
+      <c r="P43" s="244"/>
       <c r="Q43" s="95"/>
       <c r="R43" s="95"/>
-      <c r="S43" s="206" t="s">
+      <c r="S43" s="245" t="s">
         <v>218</v>
       </c>
-      <c r="T43" s="207"/>
-      <c r="U43" s="207"/>
-      <c r="V43" s="207"/>
-      <c r="W43" s="207"/>
+      <c r="T43" s="246"/>
+      <c r="U43" s="246"/>
+      <c r="V43" s="246"/>
+      <c r="W43" s="246"/>
       <c r="X43" s="92" t="s">
         <v>109</v>
       </c>
@@ -7536,10 +7548,10 @@
       <c r="AQ43" s="102"/>
     </row>
     <row r="44" spans="1:46" s="101" customFormat="1" ht="30" customHeight="1">
-      <c r="A44" s="157" t="s">
+      <c r="A44" s="177" t="s">
         <v>219</v>
       </c>
-      <c r="B44" s="158"/>
+      <c r="B44" s="179"/>
       <c r="C44" s="314" t="s">
         <v>220</v>
       </c>
@@ -7547,26 +7559,26 @@
         <v>221</v>
       </c>
       <c r="E44" s="313"/>
-      <c r="F44" s="208"/>
-      <c r="G44" s="209"/>
-      <c r="H44" s="209"/>
-      <c r="I44" s="210"/>
-      <c r="J44" s="210"/>
-      <c r="K44" s="210"/>
-      <c r="L44" s="210"/>
-      <c r="M44" s="210"/>
-      <c r="N44" s="211"/>
-      <c r="O44" s="212"/>
-      <c r="P44" s="212"/>
+      <c r="F44" s="240"/>
+      <c r="G44" s="241"/>
+      <c r="H44" s="241"/>
+      <c r="I44" s="242"/>
+      <c r="J44" s="242"/>
+      <c r="K44" s="242"/>
+      <c r="L44" s="242"/>
+      <c r="M44" s="242"/>
+      <c r="N44" s="243"/>
+      <c r="O44" s="244"/>
+      <c r="P44" s="244"/>
       <c r="Q44" s="95"/>
       <c r="R44" s="95"/>
-      <c r="S44" s="206" t="s">
+      <c r="S44" s="245" t="s">
         <v>222</v>
       </c>
-      <c r="T44" s="207"/>
-      <c r="U44" s="207"/>
-      <c r="V44" s="207"/>
-      <c r="W44" s="207"/>
+      <c r="T44" s="246"/>
+      <c r="U44" s="246"/>
+      <c r="V44" s="246"/>
+      <c r="W44" s="246"/>
       <c r="X44" s="92" t="s">
         <v>109</v>
       </c>
@@ -7590,35 +7602,35 @@
       <c r="AQ44" s="102"/>
     </row>
     <row r="45" spans="1:46" s="101" customFormat="1" ht="33.6" customHeight="1">
-      <c r="A45" s="157" t="s">
+      <c r="A45" s="177" t="s">
         <v>223</v>
       </c>
-      <c r="B45" s="158"/>
+      <c r="B45" s="179"/>
       <c r="C45" s="315"/>
       <c r="D45" s="311" t="s">
         <v>224</v>
       </c>
       <c r="E45" s="313"/>
-      <c r="F45" s="208"/>
-      <c r="G45" s="209"/>
-      <c r="H45" s="209"/>
-      <c r="I45" s="210"/>
-      <c r="J45" s="210"/>
-      <c r="K45" s="210"/>
-      <c r="L45" s="210"/>
-      <c r="M45" s="210"/>
-      <c r="N45" s="211"/>
-      <c r="O45" s="212"/>
-      <c r="P45" s="212"/>
+      <c r="F45" s="240"/>
+      <c r="G45" s="241"/>
+      <c r="H45" s="241"/>
+      <c r="I45" s="242"/>
+      <c r="J45" s="242"/>
+      <c r="K45" s="242"/>
+      <c r="L45" s="242"/>
+      <c r="M45" s="242"/>
+      <c r="N45" s="243"/>
+      <c r="O45" s="244"/>
+      <c r="P45" s="244"/>
       <c r="Q45" s="95"/>
       <c r="R45" s="95"/>
-      <c r="S45" s="206" t="s">
+      <c r="S45" s="245" t="s">
         <v>225</v>
       </c>
-      <c r="T45" s="207"/>
-      <c r="U45" s="207"/>
-      <c r="V45" s="207"/>
-      <c r="W45" s="207"/>
+      <c r="T45" s="246"/>
+      <c r="U45" s="246"/>
+      <c r="V45" s="246"/>
+      <c r="W45" s="246"/>
       <c r="X45" s="92" t="s">
         <v>109</v>
       </c>
@@ -7641,94 +7653,94 @@
       <c r="AO45" s="94"/>
       <c r="AQ45" s="102"/>
     </row>
-    <row r="46" spans="1:46" s="189" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A46" s="187" t="s">
+    <row r="46" spans="1:46" s="221" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A46" s="225" t="s">
         <v>226</v>
       </c>
-      <c r="B46" s="188"/>
-      <c r="C46" s="188"/>
-      <c r="D46" s="188"/>
-      <c r="E46" s="188"/>
-      <c r="F46" s="188"/>
-      <c r="G46" s="188"/>
-      <c r="H46" s="188"/>
-      <c r="I46" s="188"/>
-      <c r="J46" s="188"/>
-      <c r="K46" s="188"/>
-      <c r="L46" s="188"/>
-      <c r="M46" s="188"/>
-      <c r="N46" s="188"/>
-      <c r="O46" s="188"/>
-      <c r="P46" s="188"/>
-      <c r="Q46" s="188"/>
-      <c r="R46" s="188"/>
-      <c r="S46" s="188"/>
-      <c r="T46" s="188"/>
-      <c r="U46" s="188"/>
-      <c r="V46" s="188"/>
-      <c r="W46" s="188"/>
-      <c r="X46" s="188"/>
-      <c r="Y46" s="188"/>
-      <c r="Z46" s="188"/>
-      <c r="AA46" s="188"/>
-      <c r="AB46" s="188"/>
-      <c r="AC46" s="188"/>
-      <c r="AD46" s="188"/>
-      <c r="AE46" s="188"/>
-      <c r="AF46" s="188"/>
-      <c r="AG46" s="188"/>
-      <c r="AH46" s="188"/>
-      <c r="AI46" s="188"/>
-      <c r="AJ46" s="188"/>
-      <c r="AK46" s="188"/>
-      <c r="AL46" s="188"/>
-      <c r="AM46" s="188"/>
-      <c r="AN46" s="188"/>
-      <c r="AO46" s="188"/>
-      <c r="AP46" s="188"/>
-      <c r="AQ46" s="188"/>
-      <c r="AR46" s="188"/>
-      <c r="AS46" s="188"/>
-      <c r="AT46" s="188"/>
+      <c r="B46" s="220"/>
+      <c r="C46" s="220"/>
+      <c r="D46" s="220"/>
+      <c r="E46" s="220"/>
+      <c r="F46" s="220"/>
+      <c r="G46" s="220"/>
+      <c r="H46" s="220"/>
+      <c r="I46" s="220"/>
+      <c r="J46" s="220"/>
+      <c r="K46" s="220"/>
+      <c r="L46" s="220"/>
+      <c r="M46" s="220"/>
+      <c r="N46" s="220"/>
+      <c r="O46" s="220"/>
+      <c r="P46" s="220"/>
+      <c r="Q46" s="220"/>
+      <c r="R46" s="220"/>
+      <c r="S46" s="220"/>
+      <c r="T46" s="220"/>
+      <c r="U46" s="220"/>
+      <c r="V46" s="220"/>
+      <c r="W46" s="220"/>
+      <c r="X46" s="220"/>
+      <c r="Y46" s="220"/>
+      <c r="Z46" s="220"/>
+      <c r="AA46" s="220"/>
+      <c r="AB46" s="220"/>
+      <c r="AC46" s="220"/>
+      <c r="AD46" s="220"/>
+      <c r="AE46" s="220"/>
+      <c r="AF46" s="220"/>
+      <c r="AG46" s="220"/>
+      <c r="AH46" s="220"/>
+      <c r="AI46" s="220"/>
+      <c r="AJ46" s="220"/>
+      <c r="AK46" s="220"/>
+      <c r="AL46" s="220"/>
+      <c r="AM46" s="220"/>
+      <c r="AN46" s="220"/>
+      <c r="AO46" s="220"/>
+      <c r="AP46" s="220"/>
+      <c r="AQ46" s="220"/>
+      <c r="AR46" s="220"/>
+      <c r="AS46" s="220"/>
+      <c r="AT46" s="220"/>
     </row>
     <row r="47" spans="1:46" s="62" customFormat="1" ht="48" customHeight="1">
-      <c r="A47" s="157" t="s">
+      <c r="A47" s="177" t="s">
         <v>227</v>
       </c>
-      <c r="B47" s="158"/>
-      <c r="C47" s="160" t="s">
+      <c r="B47" s="179"/>
+      <c r="C47" s="249" t="s">
         <v>228</v>
       </c>
-      <c r="D47" s="160"/>
-      <c r="E47" s="160"/>
-      <c r="F47" s="159"/>
-      <c r="G47" s="159"/>
-      <c r="H47" s="159"/>
-      <c r="I47" s="204" t="s">
+      <c r="D47" s="249"/>
+      <c r="E47" s="249"/>
+      <c r="F47" s="204"/>
+      <c r="G47" s="204"/>
+      <c r="H47" s="204"/>
+      <c r="I47" s="217" t="s">
         <v>229</v>
       </c>
       <c r="J47" s="205"/>
       <c r="K47" s="205"/>
       <c r="L47" s="205"/>
       <c r="M47" s="205"/>
-      <c r="N47" s="162"/>
-      <c r="O47" s="162"/>
-      <c r="P47" s="162"/>
+      <c r="N47" s="206"/>
+      <c r="O47" s="206"/>
+      <c r="P47" s="206"/>
       <c r="Q47" s="103"/>
       <c r="R47" s="103"/>
-      <c r="S47" s="163" t="s">
+      <c r="S47" s="207" t="s">
         <v>230</v>
       </c>
-      <c r="T47" s="164"/>
-      <c r="U47" s="164"/>
-      <c r="V47" s="164"/>
-      <c r="W47" s="164"/>
+      <c r="T47" s="203"/>
+      <c r="U47" s="203"/>
+      <c r="V47" s="203"/>
+      <c r="W47" s="203"/>
       <c r="X47" s="92" t="s">
         <v>109</v>
       </c>
       <c r="Y47" s="69"/>
-      <c r="Z47" s="157"/>
-      <c r="AA47" s="158"/>
+      <c r="Z47" s="177"/>
+      <c r="AA47" s="179"/>
       <c r="AB47" s="69"/>
       <c r="AC47" s="75"/>
       <c r="AD47" s="71"/>
@@ -7744,96 +7756,96 @@
       <c r="AN47" s="104"/>
       <c r="AO47" s="105"/>
     </row>
-    <row r="48" spans="1:46" s="189" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A48" s="187" t="s">
+    <row r="48" spans="1:46" s="221" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A48" s="225" t="s">
         <v>231</v>
       </c>
-      <c r="B48" s="188"/>
-      <c r="C48" s="188"/>
-      <c r="D48" s="188"/>
-      <c r="E48" s="188"/>
-      <c r="F48" s="188"/>
-      <c r="G48" s="188"/>
-      <c r="H48" s="188"/>
-      <c r="I48" s="188"/>
-      <c r="J48" s="188"/>
-      <c r="K48" s="188"/>
-      <c r="L48" s="188"/>
-      <c r="M48" s="188"/>
-      <c r="N48" s="188"/>
-      <c r="O48" s="188"/>
-      <c r="P48" s="188"/>
-      <c r="Q48" s="188"/>
-      <c r="R48" s="188"/>
-      <c r="S48" s="188"/>
-      <c r="T48" s="188"/>
-      <c r="U48" s="188"/>
-      <c r="V48" s="188"/>
-      <c r="W48" s="188"/>
-      <c r="X48" s="188"/>
-      <c r="Y48" s="188"/>
-      <c r="Z48" s="188"/>
-      <c r="AA48" s="188"/>
-      <c r="AB48" s="188"/>
-      <c r="AC48" s="188"/>
-      <c r="AD48" s="188"/>
-      <c r="AE48" s="188"/>
-      <c r="AF48" s="188"/>
-      <c r="AG48" s="188"/>
-      <c r="AH48" s="188"/>
-      <c r="AI48" s="188"/>
-      <c r="AJ48" s="188"/>
-      <c r="AK48" s="188"/>
-      <c r="AL48" s="188"/>
-      <c r="AM48" s="188"/>
-      <c r="AN48" s="188"/>
-      <c r="AO48" s="188"/>
-      <c r="AP48" s="188"/>
-      <c r="AQ48" s="188"/>
-      <c r="AR48" s="188"/>
-      <c r="AS48" s="188"/>
-      <c r="AT48" s="188"/>
+      <c r="B48" s="220"/>
+      <c r="C48" s="220"/>
+      <c r="D48" s="220"/>
+      <c r="E48" s="220"/>
+      <c r="F48" s="220"/>
+      <c r="G48" s="220"/>
+      <c r="H48" s="220"/>
+      <c r="I48" s="220"/>
+      <c r="J48" s="220"/>
+      <c r="K48" s="220"/>
+      <c r="L48" s="220"/>
+      <c r="M48" s="220"/>
+      <c r="N48" s="220"/>
+      <c r="O48" s="220"/>
+      <c r="P48" s="220"/>
+      <c r="Q48" s="220"/>
+      <c r="R48" s="220"/>
+      <c r="S48" s="220"/>
+      <c r="T48" s="220"/>
+      <c r="U48" s="220"/>
+      <c r="V48" s="220"/>
+      <c r="W48" s="220"/>
+      <c r="X48" s="220"/>
+      <c r="Y48" s="220"/>
+      <c r="Z48" s="220"/>
+      <c r="AA48" s="220"/>
+      <c r="AB48" s="220"/>
+      <c r="AC48" s="220"/>
+      <c r="AD48" s="220"/>
+      <c r="AE48" s="220"/>
+      <c r="AF48" s="220"/>
+      <c r="AG48" s="220"/>
+      <c r="AH48" s="220"/>
+      <c r="AI48" s="220"/>
+      <c r="AJ48" s="220"/>
+      <c r="AK48" s="220"/>
+      <c r="AL48" s="220"/>
+      <c r="AM48" s="220"/>
+      <c r="AN48" s="220"/>
+      <c r="AO48" s="220"/>
+      <c r="AP48" s="220"/>
+      <c r="AQ48" s="220"/>
+      <c r="AR48" s="220"/>
+      <c r="AS48" s="220"/>
+      <c r="AT48" s="220"/>
     </row>
     <row r="49" spans="1:41" s="62" customFormat="1" ht="56.1" customHeight="1">
-      <c r="A49" s="157" t="s">
+      <c r="A49" s="177" t="s">
         <v>232</v>
       </c>
-      <c r="B49" s="158"/>
+      <c r="B49" s="179"/>
       <c r="C49" s="316" t="s">
         <v>233</v>
       </c>
-      <c r="D49" s="190" t="s">
+      <c r="D49" s="250" t="s">
         <v>234</v>
       </c>
-      <c r="E49" s="191"/>
-      <c r="F49" s="192"/>
-      <c r="G49" s="193"/>
-      <c r="H49" s="194"/>
-      <c r="I49" s="166" t="s">
+      <c r="E49" s="251"/>
+      <c r="F49" s="252"/>
+      <c r="G49" s="253"/>
+      <c r="H49" s="254"/>
+      <c r="I49" s="255" t="s">
         <v>235</v>
       </c>
-      <c r="J49" s="167"/>
-      <c r="K49" s="167"/>
-      <c r="L49" s="167"/>
-      <c r="M49" s="168"/>
-      <c r="N49" s="195"/>
-      <c r="O49" s="196"/>
-      <c r="P49" s="197"/>
+      <c r="J49" s="256"/>
+      <c r="K49" s="256"/>
+      <c r="L49" s="256"/>
+      <c r="M49" s="257"/>
+      <c r="N49" s="258"/>
+      <c r="O49" s="259"/>
+      <c r="P49" s="260"/>
       <c r="Q49" s="103"/>
       <c r="R49" s="103"/>
-      <c r="S49" s="198" t="s">
+      <c r="S49" s="261" t="s">
         <v>236</v>
       </c>
-      <c r="T49" s="199"/>
-      <c r="U49" s="199"/>
-      <c r="V49" s="199"/>
-      <c r="W49" s="200"/>
+      <c r="T49" s="262"/>
+      <c r="U49" s="262"/>
+      <c r="V49" s="262"/>
+      <c r="W49" s="263"/>
       <c r="X49" s="92" t="s">
         <v>109</v>
       </c>
       <c r="Y49" s="106"/>
-      <c r="Z49" s="201"/>
-      <c r="AA49" s="202"/>
+      <c r="Z49" s="264"/>
+      <c r="AA49" s="265"/>
       <c r="AB49" s="106"/>
       <c r="AC49" s="107"/>
       <c r="AD49" s="106"/>
@@ -7845,48 +7857,48 @@
       <c r="AJ49" s="106"/>
       <c r="AK49" s="106"/>
       <c r="AL49" s="108"/>
-      <c r="AM49" s="203"/>
-      <c r="AN49" s="203"/>
+      <c r="AM49" s="218"/>
+      <c r="AN49" s="218"/>
       <c r="AO49" s="105"/>
     </row>
     <row r="50" spans="1:41" s="112" customFormat="1" ht="59.45" customHeight="1">
-      <c r="A50" s="171" t="s">
+      <c r="A50" s="199" t="s">
         <v>237</v>
       </c>
-      <c r="B50" s="172"/>
+      <c r="B50" s="201"/>
       <c r="C50" s="317"/>
-      <c r="D50" s="177" t="s">
+      <c r="D50" s="274" t="s">
         <v>238</v>
       </c>
-      <c r="E50" s="178"/>
-      <c r="F50" s="179"/>
-      <c r="G50" s="179"/>
-      <c r="H50" s="179"/>
-      <c r="I50" s="180" t="s">
+      <c r="E50" s="275"/>
+      <c r="F50" s="276"/>
+      <c r="G50" s="276"/>
+      <c r="H50" s="276"/>
+      <c r="I50" s="277" t="s">
         <v>235</v>
       </c>
-      <c r="J50" s="181"/>
-      <c r="K50" s="181"/>
-      <c r="L50" s="181"/>
-      <c r="M50" s="182"/>
-      <c r="N50" s="183"/>
-      <c r="O50" s="183"/>
-      <c r="P50" s="183"/>
+      <c r="J50" s="278"/>
+      <c r="K50" s="278"/>
+      <c r="L50" s="278"/>
+      <c r="M50" s="279"/>
+      <c r="N50" s="280"/>
+      <c r="O50" s="280"/>
+      <c r="P50" s="280"/>
       <c r="Q50" s="82"/>
       <c r="R50" s="82"/>
-      <c r="S50" s="184" t="s">
+      <c r="S50" s="281" t="s">
         <v>239</v>
       </c>
-      <c r="T50" s="185"/>
-      <c r="U50" s="185"/>
-      <c r="V50" s="185"/>
-      <c r="W50" s="186"/>
+      <c r="T50" s="282"/>
+      <c r="U50" s="282"/>
+      <c r="V50" s="282"/>
+      <c r="W50" s="283"/>
       <c r="X50" s="92" t="s">
         <v>109</v>
       </c>
       <c r="Y50" s="68"/>
-      <c r="Z50" s="171"/>
-      <c r="AA50" s="172"/>
+      <c r="Z50" s="199"/>
+      <c r="AA50" s="201"/>
       <c r="AB50" s="68"/>
       <c r="AC50" s="109"/>
       <c r="AD50" s="68"/>
@@ -7898,38 +7910,38 @@
       <c r="AJ50" s="68"/>
       <c r="AK50" s="68"/>
       <c r="AL50" s="110"/>
-      <c r="AM50" s="173"/>
-      <c r="AN50" s="174"/>
+      <c r="AM50" s="267"/>
+      <c r="AN50" s="268"/>
       <c r="AO50" s="111"/>
     </row>
     <row r="51" spans="1:41" s="62" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A51" s="165"/>
-      <c r="B51" s="165"/>
-      <c r="C51" s="160"/>
-      <c r="D51" s="160"/>
-      <c r="E51" s="160"/>
-      <c r="F51" s="165"/>
-      <c r="G51" s="165"/>
-      <c r="H51" s="165"/>
-      <c r="I51" s="166"/>
-      <c r="J51" s="167"/>
-      <c r="K51" s="167"/>
-      <c r="L51" s="167"/>
-      <c r="M51" s="168"/>
-      <c r="N51" s="169"/>
-      <c r="O51" s="169"/>
-      <c r="P51" s="169"/>
+      <c r="A51" s="271"/>
+      <c r="B51" s="271"/>
+      <c r="C51" s="249"/>
+      <c r="D51" s="249"/>
+      <c r="E51" s="249"/>
+      <c r="F51" s="271"/>
+      <c r="G51" s="271"/>
+      <c r="H51" s="271"/>
+      <c r="I51" s="255"/>
+      <c r="J51" s="256"/>
+      <c r="K51" s="256"/>
+      <c r="L51" s="256"/>
+      <c r="M51" s="257"/>
+      <c r="N51" s="272"/>
+      <c r="O51" s="272"/>
+      <c r="P51" s="272"/>
       <c r="Q51" s="103"/>
       <c r="R51" s="103"/>
-      <c r="S51" s="170"/>
-      <c r="T51" s="160"/>
-      <c r="U51" s="160"/>
-      <c r="V51" s="160"/>
-      <c r="W51" s="160"/>
+      <c r="S51" s="273"/>
+      <c r="T51" s="249"/>
+      <c r="U51" s="249"/>
+      <c r="V51" s="249"/>
+      <c r="W51" s="249"/>
       <c r="X51" s="71"/>
       <c r="Y51" s="69"/>
-      <c r="Z51" s="157"/>
-      <c r="AA51" s="158"/>
+      <c r="Z51" s="177"/>
+      <c r="AA51" s="179"/>
       <c r="AB51" s="113"/>
       <c r="AC51" s="107"/>
       <c r="AD51" s="114"/>
@@ -7941,38 +7953,38 @@
       <c r="AJ51" s="114"/>
       <c r="AK51" s="113"/>
       <c r="AL51" s="108"/>
-      <c r="AM51" s="175"/>
-      <c r="AN51" s="176"/>
+      <c r="AM51" s="269"/>
+      <c r="AN51" s="270"/>
       <c r="AO51" s="105"/>
     </row>
     <row r="52" spans="1:41" s="62" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A52" s="159"/>
-      <c r="B52" s="159"/>
-      <c r="C52" s="160"/>
-      <c r="D52" s="160"/>
-      <c r="E52" s="160"/>
-      <c r="F52" s="159"/>
-      <c r="G52" s="159"/>
-      <c r="H52" s="159"/>
-      <c r="I52" s="161"/>
-      <c r="J52" s="161"/>
-      <c r="K52" s="161"/>
-      <c r="L52" s="161"/>
-      <c r="M52" s="161"/>
-      <c r="N52" s="162"/>
-      <c r="O52" s="162"/>
-      <c r="P52" s="162"/>
+      <c r="A52" s="204"/>
+      <c r="B52" s="204"/>
+      <c r="C52" s="249"/>
+      <c r="D52" s="249"/>
+      <c r="E52" s="249"/>
+      <c r="F52" s="204"/>
+      <c r="G52" s="204"/>
+      <c r="H52" s="204"/>
+      <c r="I52" s="266"/>
+      <c r="J52" s="266"/>
+      <c r="K52" s="266"/>
+      <c r="L52" s="266"/>
+      <c r="M52" s="266"/>
+      <c r="N52" s="206"/>
+      <c r="O52" s="206"/>
+      <c r="P52" s="206"/>
       <c r="Q52" s="103"/>
       <c r="R52" s="103"/>
-      <c r="S52" s="163"/>
-      <c r="T52" s="164"/>
-      <c r="U52" s="164"/>
-      <c r="V52" s="164"/>
-      <c r="W52" s="164"/>
+      <c r="S52" s="207"/>
+      <c r="T52" s="203"/>
+      <c r="U52" s="203"/>
+      <c r="V52" s="203"/>
+      <c r="W52" s="203"/>
       <c r="X52" s="71"/>
       <c r="Y52" s="69"/>
-      <c r="Z52" s="157"/>
-      <c r="AA52" s="158"/>
+      <c r="Z52" s="177"/>
+      <c r="AA52" s="179"/>
       <c r="AB52" s="69"/>
       <c r="AC52" s="75"/>
       <c r="AD52" s="71"/>
@@ -7984,38 +7996,38 @@
       <c r="AJ52" s="71"/>
       <c r="AK52" s="69"/>
       <c r="AL52" s="74"/>
-      <c r="AM52" s="175"/>
-      <c r="AN52" s="176"/>
+      <c r="AM52" s="269"/>
+      <c r="AN52" s="270"/>
       <c r="AO52" s="105"/>
     </row>
     <row r="53" spans="1:41" s="62" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A53" s="165"/>
-      <c r="B53" s="165"/>
-      <c r="C53" s="160"/>
-      <c r="D53" s="160"/>
-      <c r="E53" s="160"/>
-      <c r="F53" s="165"/>
-      <c r="G53" s="165"/>
-      <c r="H53" s="165"/>
-      <c r="I53" s="166"/>
-      <c r="J53" s="167"/>
-      <c r="K53" s="167"/>
-      <c r="L53" s="167"/>
-      <c r="M53" s="168"/>
-      <c r="N53" s="169"/>
-      <c r="O53" s="169"/>
-      <c r="P53" s="169"/>
+      <c r="A53" s="271"/>
+      <c r="B53" s="271"/>
+      <c r="C53" s="249"/>
+      <c r="D53" s="249"/>
+      <c r="E53" s="249"/>
+      <c r="F53" s="271"/>
+      <c r="G53" s="271"/>
+      <c r="H53" s="271"/>
+      <c r="I53" s="255"/>
+      <c r="J53" s="256"/>
+      <c r="K53" s="256"/>
+      <c r="L53" s="256"/>
+      <c r="M53" s="257"/>
+      <c r="N53" s="272"/>
+      <c r="O53" s="272"/>
+      <c r="P53" s="272"/>
       <c r="Q53" s="103"/>
       <c r="R53" s="103"/>
-      <c r="S53" s="170"/>
-      <c r="T53" s="160"/>
-      <c r="U53" s="160"/>
-      <c r="V53" s="160"/>
-      <c r="W53" s="160"/>
+      <c r="S53" s="273"/>
+      <c r="T53" s="249"/>
+      <c r="U53" s="249"/>
+      <c r="V53" s="249"/>
+      <c r="W53" s="249"/>
       <c r="X53" s="71"/>
       <c r="Y53" s="69"/>
-      <c r="Z53" s="157"/>
-      <c r="AA53" s="158"/>
+      <c r="Z53" s="177"/>
+      <c r="AA53" s="179"/>
       <c r="AB53" s="113"/>
       <c r="AC53" s="107"/>
       <c r="AD53" s="114"/>
@@ -8027,38 +8039,38 @@
       <c r="AJ53" s="114"/>
       <c r="AK53" s="113"/>
       <c r="AL53" s="108"/>
-      <c r="AM53" s="175"/>
-      <c r="AN53" s="176"/>
+      <c r="AM53" s="269"/>
+      <c r="AN53" s="270"/>
       <c r="AO53" s="105"/>
     </row>
     <row r="54" spans="1:41" s="62" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A54" s="159"/>
-      <c r="B54" s="159"/>
-      <c r="C54" s="160"/>
-      <c r="D54" s="160"/>
-      <c r="E54" s="160"/>
-      <c r="F54" s="159"/>
-      <c r="G54" s="159"/>
-      <c r="H54" s="159"/>
-      <c r="I54" s="161"/>
-      <c r="J54" s="161"/>
-      <c r="K54" s="161"/>
-      <c r="L54" s="161"/>
-      <c r="M54" s="161"/>
-      <c r="N54" s="162"/>
-      <c r="O54" s="162"/>
-      <c r="P54" s="162"/>
+      <c r="A54" s="204"/>
+      <c r="B54" s="204"/>
+      <c r="C54" s="249"/>
+      <c r="D54" s="249"/>
+      <c r="E54" s="249"/>
+      <c r="F54" s="204"/>
+      <c r="G54" s="204"/>
+      <c r="H54" s="204"/>
+      <c r="I54" s="266"/>
+      <c r="J54" s="266"/>
+      <c r="K54" s="266"/>
+      <c r="L54" s="266"/>
+      <c r="M54" s="266"/>
+      <c r="N54" s="206"/>
+      <c r="O54" s="206"/>
+      <c r="P54" s="206"/>
       <c r="Q54" s="103"/>
       <c r="R54" s="103"/>
-      <c r="S54" s="163"/>
-      <c r="T54" s="164"/>
-      <c r="U54" s="164"/>
-      <c r="V54" s="164"/>
-      <c r="W54" s="164"/>
+      <c r="S54" s="207"/>
+      <c r="T54" s="203"/>
+      <c r="U54" s="203"/>
+      <c r="V54" s="203"/>
+      <c r="W54" s="203"/>
       <c r="X54" s="71"/>
       <c r="Y54" s="69"/>
-      <c r="Z54" s="157"/>
-      <c r="AA54" s="158"/>
+      <c r="Z54" s="177"/>
+      <c r="AA54" s="179"/>
       <c r="AB54" s="69"/>
       <c r="AC54" s="75"/>
       <c r="AD54" s="71"/>
@@ -8070,12 +8082,284 @@
       <c r="AJ54" s="71"/>
       <c r="AK54" s="69"/>
       <c r="AL54" s="74"/>
-      <c r="AM54" s="175"/>
-      <c r="AN54" s="176"/>
+      <c r="AM54" s="269"/>
+      <c r="AN54" s="270"/>
       <c r="AO54" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="296">
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:H54"/>
+    <mergeCell ref="I54:M54"/>
+    <mergeCell ref="N54:P54"/>
+    <mergeCell ref="S54:W54"/>
+    <mergeCell ref="Z54:AA54"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:H53"/>
+    <mergeCell ref="I53:M53"/>
+    <mergeCell ref="N53:P53"/>
+    <mergeCell ref="S53:W53"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:H52"/>
+    <mergeCell ref="I52:M52"/>
+    <mergeCell ref="N52:P52"/>
+    <mergeCell ref="S52:W52"/>
+    <mergeCell ref="Z52:AA52"/>
+    <mergeCell ref="Z50:AA50"/>
+    <mergeCell ref="AM50:AN54"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="I51:M51"/>
+    <mergeCell ref="N51:P51"/>
+    <mergeCell ref="S51:W51"/>
+    <mergeCell ref="Z51:AA51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="I50:M50"/>
+    <mergeCell ref="N50:P50"/>
+    <mergeCell ref="S50:W50"/>
+    <mergeCell ref="Z53:AA53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A48:XFD48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="F49:H49"/>
+    <mergeCell ref="I49:M49"/>
+    <mergeCell ref="N49:P49"/>
+    <mergeCell ref="S49:W49"/>
+    <mergeCell ref="Z49:AA49"/>
+    <mergeCell ref="AM49:AN49"/>
+    <mergeCell ref="A46:XFD46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="I47:M47"/>
+    <mergeCell ref="N47:P47"/>
+    <mergeCell ref="S47:W47"/>
+    <mergeCell ref="Z47:AA47"/>
+    <mergeCell ref="S44:W44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="I45:M45"/>
+    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="S45:W45"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="I44:M44"/>
+    <mergeCell ref="N44:P44"/>
+    <mergeCell ref="A42:AO42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="I43:M43"/>
+    <mergeCell ref="N43:P43"/>
+    <mergeCell ref="S43:W43"/>
+    <mergeCell ref="AQ40:AT40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="I41:M41"/>
+    <mergeCell ref="N41:P41"/>
+    <mergeCell ref="S41:W41"/>
+    <mergeCell ref="AM41:AN41"/>
+    <mergeCell ref="S39:W39"/>
+    <mergeCell ref="AM39:AN39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="I40:M40"/>
+    <mergeCell ref="N40:P40"/>
+    <mergeCell ref="S40:W40"/>
+    <mergeCell ref="AM40:AN40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="I39:M39"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="AM37:AN37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="I38:M38"/>
+    <mergeCell ref="N38:P38"/>
+    <mergeCell ref="S38:W38"/>
+    <mergeCell ref="AM38:AN38"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="I37:M37"/>
+    <mergeCell ref="N37:P37"/>
+    <mergeCell ref="S37:W37"/>
+    <mergeCell ref="A35:XFD35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="I36:M36"/>
+    <mergeCell ref="N36:P36"/>
+    <mergeCell ref="S36:W36"/>
+    <mergeCell ref="AM36:AN36"/>
+    <mergeCell ref="AQ33:AT33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="I34:M34"/>
+    <mergeCell ref="N34:P34"/>
+    <mergeCell ref="S34:W34"/>
+    <mergeCell ref="AM34:AN34"/>
+    <mergeCell ref="S32:W32"/>
+    <mergeCell ref="AM32:AN32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="I33:M33"/>
+    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="S33:W33"/>
+    <mergeCell ref="AM33:AN33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="I32:M32"/>
+    <mergeCell ref="N32:P32"/>
+    <mergeCell ref="AM30:AN30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="I31:M31"/>
+    <mergeCell ref="N31:P31"/>
+    <mergeCell ref="S31:W31"/>
+    <mergeCell ref="AM31:AN31"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="I30:M30"/>
+    <mergeCell ref="N30:P30"/>
+    <mergeCell ref="S30:W30"/>
+    <mergeCell ref="A28:XFD28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="I29:M29"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="S29:W29"/>
+    <mergeCell ref="AM29:AN29"/>
+    <mergeCell ref="AQ26:AT26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="I27:M27"/>
+    <mergeCell ref="N27:P27"/>
+    <mergeCell ref="S27:W27"/>
+    <mergeCell ref="AM27:AN27"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:M26"/>
+    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="S26:W26"/>
+    <mergeCell ref="AM26:AN26"/>
+    <mergeCell ref="AM24:AN24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:M25"/>
+    <mergeCell ref="N25:P25"/>
+    <mergeCell ref="S25:W25"/>
+    <mergeCell ref="AM25:AN25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:M24"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="S24:W24"/>
+    <mergeCell ref="AM22:AN22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:M23"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="S23:W23"/>
+    <mergeCell ref="AM23:AN23"/>
+    <mergeCell ref="AM19:AN19"/>
+    <mergeCell ref="A20:AO20"/>
+    <mergeCell ref="A21:W21"/>
+    <mergeCell ref="AM21:AN21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:M22"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="S22:W22"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:M19"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="S19:W19"/>
+    <mergeCell ref="AM17:AN17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:M18"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="S18:W18"/>
+    <mergeCell ref="AM18:AN18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:M17"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="S17:W17"/>
+    <mergeCell ref="AM15:AN15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:M16"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="S16:W16"/>
+    <mergeCell ref="AM16:AN16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:M15"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="S15:W15"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:M12"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="S12:W12"/>
+    <mergeCell ref="AM12:AN12"/>
+    <mergeCell ref="A13:AO13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:M14"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="S14:W14"/>
+    <mergeCell ref="AM14:AN14"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AD9:AE9"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="AJ9:AK9"/>
+    <mergeCell ref="AD6:AF6"/>
+    <mergeCell ref="AG6:AI6"/>
+    <mergeCell ref="AJ6:AL6"/>
+    <mergeCell ref="AD10:AE10"/>
+    <mergeCell ref="AG10:AH10"/>
+    <mergeCell ref="AJ10:AK10"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A4:I4"/>
     <mergeCell ref="A6:B11"/>
@@ -8100,278 +8384,6 @@
     <mergeCell ref="AD8:AE8"/>
     <mergeCell ref="AG8:AH8"/>
     <mergeCell ref="AJ8:AK8"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="AJ9:AK9"/>
-    <mergeCell ref="AD6:AF6"/>
-    <mergeCell ref="AG6:AI6"/>
-    <mergeCell ref="AJ6:AL6"/>
-    <mergeCell ref="AD10:AE10"/>
-    <mergeCell ref="AG10:AH10"/>
-    <mergeCell ref="AJ10:AK10"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:M12"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="S12:W12"/>
-    <mergeCell ref="AM12:AN12"/>
-    <mergeCell ref="A13:AO13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:M14"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="S14:W14"/>
-    <mergeCell ref="AM14:AN14"/>
-    <mergeCell ref="AM15:AN15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:M16"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="S16:W16"/>
-    <mergeCell ref="AM16:AN16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:M15"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="S15:W15"/>
-    <mergeCell ref="AM17:AN17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:M18"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="S18:W18"/>
-    <mergeCell ref="AM18:AN18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:M17"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="S17:W17"/>
-    <mergeCell ref="AM22:AN22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:M23"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="S23:W23"/>
-    <mergeCell ref="AM23:AN23"/>
-    <mergeCell ref="AM19:AN19"/>
-    <mergeCell ref="A20:AO20"/>
-    <mergeCell ref="A21:W21"/>
-    <mergeCell ref="AM21:AN21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:M22"/>
-    <mergeCell ref="N22:P22"/>
-    <mergeCell ref="S22:W22"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:M19"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="S19:W19"/>
-    <mergeCell ref="AM24:AN24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:M25"/>
-    <mergeCell ref="N25:P25"/>
-    <mergeCell ref="S25:W25"/>
-    <mergeCell ref="AM25:AN25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:M24"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="S24:W24"/>
-    <mergeCell ref="A28:XFD28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="I29:M29"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="S29:W29"/>
-    <mergeCell ref="AM29:AN29"/>
-    <mergeCell ref="AQ26:AT26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="I27:M27"/>
-    <mergeCell ref="N27:P27"/>
-    <mergeCell ref="S27:W27"/>
-    <mergeCell ref="AM27:AN27"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="I26:M26"/>
-    <mergeCell ref="N26:P26"/>
-    <mergeCell ref="S26:W26"/>
-    <mergeCell ref="AM26:AN26"/>
-    <mergeCell ref="AM30:AN30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="I31:M31"/>
-    <mergeCell ref="N31:P31"/>
-    <mergeCell ref="S31:W31"/>
-    <mergeCell ref="AM31:AN31"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="I30:M30"/>
-    <mergeCell ref="N30:P30"/>
-    <mergeCell ref="S30:W30"/>
-    <mergeCell ref="S32:W32"/>
-    <mergeCell ref="AM32:AN32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="I33:M33"/>
-    <mergeCell ref="N33:P33"/>
-    <mergeCell ref="S33:W33"/>
-    <mergeCell ref="AM33:AN33"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="I32:M32"/>
-    <mergeCell ref="N32:P32"/>
-    <mergeCell ref="A35:XFD35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="I36:M36"/>
-    <mergeCell ref="N36:P36"/>
-    <mergeCell ref="S36:W36"/>
-    <mergeCell ref="AM36:AN36"/>
-    <mergeCell ref="AQ33:AT33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="I34:M34"/>
-    <mergeCell ref="N34:P34"/>
-    <mergeCell ref="S34:W34"/>
-    <mergeCell ref="AM34:AN34"/>
-    <mergeCell ref="AM37:AN37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="I38:M38"/>
-    <mergeCell ref="N38:P38"/>
-    <mergeCell ref="S38:W38"/>
-    <mergeCell ref="AM38:AN38"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="I37:M37"/>
-    <mergeCell ref="N37:P37"/>
-    <mergeCell ref="S37:W37"/>
-    <mergeCell ref="S39:W39"/>
-    <mergeCell ref="AM39:AN39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="I40:M40"/>
-    <mergeCell ref="N40:P40"/>
-    <mergeCell ref="S40:W40"/>
-    <mergeCell ref="AM40:AN40"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="I39:M39"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="A42:AO42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="I43:M43"/>
-    <mergeCell ref="N43:P43"/>
-    <mergeCell ref="S43:W43"/>
-    <mergeCell ref="AQ40:AT40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="I41:M41"/>
-    <mergeCell ref="N41:P41"/>
-    <mergeCell ref="S41:W41"/>
-    <mergeCell ref="AM41:AN41"/>
-    <mergeCell ref="A46:XFD46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="I47:M47"/>
-    <mergeCell ref="N47:P47"/>
-    <mergeCell ref="S47:W47"/>
-    <mergeCell ref="Z47:AA47"/>
-    <mergeCell ref="S44:W44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="I45:M45"/>
-    <mergeCell ref="N45:P45"/>
-    <mergeCell ref="S45:W45"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="I44:M44"/>
-    <mergeCell ref="N44:P44"/>
-    <mergeCell ref="A48:XFD48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="F49:H49"/>
-    <mergeCell ref="I49:M49"/>
-    <mergeCell ref="N49:P49"/>
-    <mergeCell ref="S49:W49"/>
-    <mergeCell ref="Z49:AA49"/>
-    <mergeCell ref="AM49:AN49"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:H52"/>
-    <mergeCell ref="I52:M52"/>
-    <mergeCell ref="N52:P52"/>
-    <mergeCell ref="S52:W52"/>
-    <mergeCell ref="Z52:AA52"/>
-    <mergeCell ref="Z50:AA50"/>
-    <mergeCell ref="AM50:AN54"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:H51"/>
-    <mergeCell ref="I51:M51"/>
-    <mergeCell ref="N51:P51"/>
-    <mergeCell ref="S51:W51"/>
-    <mergeCell ref="Z51:AA51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="I50:M50"/>
-    <mergeCell ref="N50:P50"/>
-    <mergeCell ref="S50:W50"/>
-    <mergeCell ref="Z53:AA53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:H54"/>
-    <mergeCell ref="I54:M54"/>
-    <mergeCell ref="N54:P54"/>
-    <mergeCell ref="S54:W54"/>
-    <mergeCell ref="Z54:AA54"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:H53"/>
-    <mergeCell ref="I53:M53"/>
-    <mergeCell ref="N53:P53"/>
-    <mergeCell ref="S53:W53"/>
   </mergeCells>
   <conditionalFormatting sqref="X21 X17 A14:A19 X25:X27 A22:B27 A29:B34">
     <cfRule type="cellIs" dxfId="79" priority="65" stopIfTrue="1" operator="equal">
